--- a/Bugs_tracking/Ket qua Test_30 Dec 2015.xlsx
+++ b/Bugs_tracking/Ket qua Test_30 Dec 2015.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softs\SQLServer2012\TTC\Test issue\Kieu\Dec-30-2015\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7830" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7830" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NGHIEM THU_TRADE FINANCE" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="899">
   <si>
     <t>STT</t>
   </si>
@@ -509,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +610,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,7 +626,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -661,7 +656,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -810,7 +805,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +818,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -836,7 +831,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -847,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1007,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1023,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1041,7 +1036,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1095,7 +1090,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1105,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1120,7 +1115,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1143,7 +1138,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1156,7 +1151,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1169,7 +1164,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1186,7 +1181,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1225,7 +1220,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,7 +1239,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1275,7 +1270,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1285,7 +1280,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1305,7 +1300,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,7 +1310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1442,7 +1437,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,7 +1629,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,7 +1639,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1835,7 +1830,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1844,7 +1839,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,7 +1866,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,7 +1876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1936,7 +1931,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1954,7 +1949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2163,7 +2158,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2173,7 +2168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2199,7 +2194,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2221,7 +2216,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2231,7 +2226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2242,7 +2237,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2252,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2264,7 +2259,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2274,7 +2269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2390,7 +2385,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2401,7 +2396,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2455,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2481,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2495,7 +2490,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2505,7 +2500,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2518,7 +2513,7 @@
         <u/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2528,7 +2523,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2579,7 +2574,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2648,7 +2643,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2658,7 +2653,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2844,7 +2839,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2854,7 +2849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3513,7 +3508,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3525,7 +3520,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3558,7 +3553,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3583,7 +3578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3592,7 +3587,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3602,7 +3597,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3617,7 +3612,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3641,7 +3636,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3663,7 +3658,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3688,7 +3683,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3706,7 +3701,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3723,7 +3718,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3733,7 +3728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="4"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3744,7 +3739,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3754,7 +3749,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3765,7 +3760,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3781,7 +3776,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3884,12 +3879,6 @@
     <t>Tất cả các lỗi này đã email Anh Nguyên trước đây</t>
   </si>
   <si>
-    <t>NOT YET (thieu thong tin khach hang)</t>
-  </si>
-  <si>
-    <t>NOT YET (xuat duoc file VAT nhung thieu thong tin KH)</t>
-  </si>
-  <si>
     <t>Không thể Enter xuống dòng để viết tiếp</t>
   </si>
   <si>
@@ -3954,16 +3943,10 @@
     <t>Phần thông tin VietVictory và thông tin phiếu nên cách xuống vài dòng (đang còn sát với tiêu đề)</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT YET </t>
-  </si>
-  <si>
     <t>Thiếu nhiều thông tin trên phiếu, canh dòng các nội dung trên phiếu theo format.</t>
   </si>
   <si>
     <t>Phiếu VAT thiếu thông tin Khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT YET  </t>
   </si>
   <si>
     <t>DONE             (tuy nhien, van con chu undefined ke ben)</t>
@@ -3976,7 +3959,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3986,10 +3969,6 @@
   <si>
     <t>Thể hiện rõ tên Ngân hàng: 
 VIET VICTORY BANK thay vì NGÂN HÀNG: VVTBVNVX</t>
-  </si>
-  <si>
-    <t>NOT YET
-(chua co so dien thoai)</t>
   </si>
   <si>
     <t>Chua add A, BC vao tab phi courier va other</t>
@@ -4002,7 +3981,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4013,7 +3992,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4024,7 +4003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4077,7 +4056,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4094,7 +4073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4111,7 +4090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4128,7 +4107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4141,7 +4120,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4152,7 +4131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4170,7 +4149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4195,7 +4174,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -4239,23 +4218,26 @@
   <si>
     <t>Test nhầm site ==&gt; Đề nghị test lại</t>
   </si>
+  <si>
+    <t>Không thấy issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4263,7 +4245,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4271,7 +4253,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4279,20 +4261,20 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4311,28 +4293,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4344,21 +4326,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3366FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4366,7 +4348,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4374,7 +4356,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4382,14 +4364,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4397,14 +4379,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4412,7 +4394,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4420,7 +4402,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4428,7 +4410,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4463,7 +4445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4472,7 +4454,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4555,14 +4537,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3366FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4571,7 +4553,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4584,7 +4566,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4592,7 +4574,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4600,7 +4582,7 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4608,7 +4590,7 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4622,7 +4604,7 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4630,7 +4612,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -4638,13 +4620,13 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4726,6 +4708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5007,7 +4995,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5619,12 +5607,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5676,12 +5658,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5704,15 +5680,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5749,6 +5716,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5790,6 +5760,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5799,17 +5778,29 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -5940,7 +5931,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5960,494 +5951,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>173</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>173</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>170</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>170</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6147" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6147"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7170" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7170"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7171" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7171"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6526,7 +6029,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6561,7 +6063,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6737,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
@@ -6745,7 +6246,7 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6758,24 +6259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="10" max="10" width="30.875" customWidth="1"/>
+    <col min="12" max="12" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="122" customFormat="1" ht="51">
@@ -7053,7 +6554,7 @@
         <v>190</v>
       </c>
       <c r="L9" s="169"/>
-      <c r="M9" s="253" t="s">
+      <c r="M9" s="247" t="s">
         <v>712</v>
       </c>
       <c r="N9" s="161"/>
@@ -7084,7 +6585,7 @@
         <v>190</v>
       </c>
       <c r="L10" s="170"/>
-      <c r="M10" s="254"/>
+      <c r="M10" s="248"/>
       <c r="N10" s="161"/>
       <c r="O10" s="161"/>
       <c r="P10" s="161"/>
@@ -8374,37 +7875,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView topLeftCell="I14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="K17" sqref="K17:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="42" style="6" customWidth="1"/>
     <col min="3" max="3" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="6" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="51.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
     <col min="11" max="11" width="28" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="6" customWidth="1"/>
     <col min="13" max="13" width="35" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.85546875" style="6"/>
+    <col min="17" max="17" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.875" style="6"/>
     <col min="22" max="22" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="6"/>
+    <col min="23" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="2" customFormat="1" ht="29.25" customHeight="1">
@@ -8491,7 +7992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" ht="30">
+    <row r="3" spans="1:16384" ht="28.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>796</v>
@@ -8522,7 +8023,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:16384" s="140" customFormat="1" ht="45">
+    <row r="4" spans="1:16384" s="140" customFormat="1" ht="42.75">
       <c r="A4" s="87"/>
       <c r="B4" s="87" t="s">
         <v>799</v>
@@ -8580,7 +8081,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:16384" ht="150">
+    <row r="6" spans="1:16384" ht="114">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>772</v>
@@ -8786,7 +8287,7 @@
       <c r="R12" s="87"/>
       <c r="S12" s="87"/>
     </row>
-    <row r="13" spans="1:16384" s="142" customFormat="1" ht="105">
+    <row r="13" spans="1:16384" s="142" customFormat="1" ht="99.75">
       <c r="A13" s="80"/>
       <c r="B13" s="80" t="s">
         <v>787</v>
@@ -25182,7 +24683,7 @@
       <c r="XFC13" s="80"/>
       <c r="XFD13" s="80"/>
     </row>
-    <row r="14" spans="1:16384" ht="30">
+    <row r="14" spans="1:16384" ht="28.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>789</v>
@@ -25214,7 +24715,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="205" customFormat="1" ht="30">
+    <row r="15" spans="1:16384" s="205" customFormat="1" ht="28.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>792</v>
@@ -25233,7 +24734,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="205" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -25243,7 +24744,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:16384" s="206" customFormat="1" ht="30">
+    <row r="16" spans="1:16384" s="206" customFormat="1" ht="28.5">
       <c r="A16" s="69">
         <v>7</v>
       </c>
@@ -25260,7 +24761,7 @@
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
       <c r="L16" s="205" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="M16" s="69"/>
       <c r="N16" s="69"/>
@@ -25270,7 +24771,7 @@
       <c r="R16" s="69"/>
       <c r="S16" s="69"/>
     </row>
-    <row r="17" spans="1:19" s="205" customFormat="1" ht="30">
+    <row r="17" spans="1:19" s="205" customFormat="1" ht="28.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>794</v>
@@ -25287,11 +24788,11 @@
       <c r="J17" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K17" s="255" t="s">
+      <c r="K17" s="249" t="s">
         <v>843</v>
       </c>
       <c r="L17" s="205" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -25301,7 +24802,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" s="205" customFormat="1" ht="30">
+    <row r="18" spans="1:19" s="205" customFormat="1" ht="28.5">
       <c r="B18" s="205" t="s">
         <v>837</v>
       </c>
@@ -25311,9 +24812,9 @@
       <c r="J18" s="205" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="256"/>
+      <c r="K18" s="250"/>
       <c r="L18" s="205" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="205" customFormat="1" ht="36.950000000000003" customHeight="1">
@@ -25326,12 +24827,12 @@
       <c r="J19" s="205" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="256"/>
+      <c r="K19" s="250"/>
       <c r="L19" s="205" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="90">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="85.5">
       <c r="B20" s="205" t="s">
         <v>839</v>
       </c>
@@ -25347,9 +24848,9 @@
       <c r="J20" s="205" t="s">
         <v>352</v>
       </c>
-      <c r="K20" s="256"/>
+      <c r="K20" s="250"/>
       <c r="L20" s="205" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -25358,34 +24859,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="9217" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="9217" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="9217" r:id="rId2"/>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -25396,7 +24872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R207"/>
   <sheetViews>
@@ -25404,27 +24880,27 @@
       <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="103" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="103" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="103" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="103" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="103" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="103" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="103" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="103" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="103" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="103" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="103" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="103" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="103" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="103" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="103" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="103" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="103" customWidth="1"/>
+    <col min="10" max="10" width="32.375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="111" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.125" style="103" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="103" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="103" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" style="103" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34" style="103" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="103" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="103" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="103"/>
+    <col min="17" max="17" width="23.375" style="103" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.875" style="103" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.125" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="91" customFormat="1" ht="43.5" customHeight="1">
@@ -25483,7 +24959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="95" customFormat="1" hidden="1">
+    <row r="2" spans="1:18" s="95" customFormat="1" ht="15" hidden="1">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -25507,7 +24983,7 @@
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
     </row>
-    <row r="3" spans="1:18" s="99" customFormat="1" ht="76.5">
+    <row r="3" spans="1:18" s="99" customFormat="1" ht="63.75">
       <c r="A3" s="87"/>
       <c r="B3" s="87" t="s">
         <v>345</v>
@@ -25537,7 +25013,7 @@
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
     </row>
-    <row r="4" spans="1:18" s="98" customFormat="1" ht="30">
+    <row r="4" spans="1:18" s="98" customFormat="1" ht="28.5">
       <c r="A4" s="96"/>
       <c r="B4" s="79" t="s">
         <v>322</v>
@@ -25565,7 +25041,7 @@
       <c r="Q4" s="96"/>
       <c r="R4" s="96"/>
     </row>
-    <row r="5" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="5" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A5" s="87"/>
       <c r="B5" s="87" t="s">
         <v>325</v>
@@ -25593,7 +25069,7 @@
       <c r="Q5" s="87"/>
       <c r="R5" s="87"/>
     </row>
-    <row r="6" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="6" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A6" s="87"/>
       <c r="B6" s="87" t="s">
         <v>327</v>
@@ -25621,7 +25097,7 @@
       <c r="Q6" s="87"/>
       <c r="R6" s="87"/>
     </row>
-    <row r="7" spans="1:18" s="99" customFormat="1" ht="120">
+    <row r="7" spans="1:18" s="99" customFormat="1" ht="114">
       <c r="A7" s="87"/>
       <c r="B7" s="87" t="s">
         <v>329</v>
@@ -25677,7 +25153,7 @@
       <c r="Q8" s="80"/>
       <c r="R8" s="80"/>
     </row>
-    <row r="9" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="9" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A9" s="80"/>
       <c r="B9" s="80" t="s">
         <v>159</v>
@@ -25763,7 +25239,7 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="80"/>
     </row>
-    <row r="12" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="12" spans="1:18" s="100" customFormat="1">
       <c r="A12" s="80"/>
       <c r="B12" s="80" t="s">
         <v>340</v>
@@ -25791,7 +25267,7 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="80"/>
     </row>
-    <row r="13" spans="1:18" s="99" customFormat="1" ht="191.25">
+    <row r="13" spans="1:18" s="99" customFormat="1" ht="165.75">
       <c r="A13" s="87"/>
       <c r="B13" s="87" t="s">
         <v>342</v>
@@ -25821,7 +25297,7 @@
       <c r="Q13" s="87"/>
       <c r="R13" s="87"/>
     </row>
-    <row r="14" spans="1:18" s="99" customFormat="1" ht="63.75" hidden="1">
+    <row r="14" spans="1:18" s="99" customFormat="1" ht="51" hidden="1">
       <c r="A14" s="87"/>
       <c r="B14" s="87" t="s">
         <v>345</v>
@@ -25877,7 +25353,7 @@
       <c r="Q15" s="80"/>
       <c r="R15" s="80"/>
     </row>
-    <row r="16" spans="1:18" s="100" customFormat="1" ht="30" hidden="1">
+    <row r="16" spans="1:18" s="100" customFormat="1" ht="28.5" hidden="1">
       <c r="A16" s="80"/>
       <c r="B16" s="80" t="s">
         <v>350</v>
@@ -25903,7 +25379,7 @@
       <c r="Q16" s="80"/>
       <c r="R16" s="80"/>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" ht="30">
+    <row r="17" spans="1:18" s="6" customFormat="1" ht="28.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>672</v>
@@ -25931,7 +25407,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" s="95" customFormat="1" hidden="1">
+    <row r="18" spans="1:18" s="95" customFormat="1" ht="15" hidden="1">
       <c r="A18" s="92">
         <v>2</v>
       </c>
@@ -25955,7 +25431,7 @@
       <c r="Q18" s="92"/>
       <c r="R18" s="92"/>
     </row>
-    <row r="19" spans="1:18" ht="30">
+    <row r="19" spans="1:18" ht="28.5">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>354</v>
@@ -25983,7 +25459,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="20" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A20" s="80"/>
       <c r="B20" s="80" t="s">
         <v>354</v>
@@ -26121,7 +25597,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" ht="45">
+    <row r="25" spans="1:18" ht="42.75">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>365</v>
@@ -26149,7 +25625,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="26" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A26" s="80"/>
       <c r="B26" s="80" t="s">
         <v>367</v>
@@ -26179,7 +25655,7 @@
       <c r="Q26" s="80"/>
       <c r="R26" s="80"/>
     </row>
-    <row r="27" spans="1:18" ht="30">
+    <row r="27" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>369</v>
@@ -26205,7 +25681,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" ht="30">
+    <row r="28" spans="1:18" ht="28.5">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>371</v>
@@ -26233,7 +25709,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" ht="30">
+    <row r="29" spans="1:18" ht="28.5">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>373</v>
@@ -26261,7 +25737,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" ht="30">
+    <row r="30" spans="1:18" ht="28.5">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>375</v>
@@ -26289,7 +25765,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="31" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A31" s="80"/>
       <c r="B31" s="80" t="s">
         <v>377</v>
@@ -26317,7 +25793,7 @@
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
     </row>
-    <row r="32" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="32" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A32" s="80"/>
       <c r="B32" s="80" t="s">
         <v>379</v>
@@ -26401,7 +25877,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" ht="45">
+    <row r="35" spans="1:18" ht="42.75">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>384</v>
@@ -26457,7 +25933,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" ht="30">
+    <row r="37" spans="1:18" ht="28.5">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
         <v>388</v>
@@ -26485,7 +25961,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18" ht="30">
+    <row r="38" spans="1:18" ht="28.5">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>390</v>
@@ -26513,7 +25989,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" ht="30">
+    <row r="39" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
         <v>392</v>
@@ -26569,7 +26045,7 @@
       <c r="Q40" s="87"/>
       <c r="R40" s="87"/>
     </row>
-    <row r="41" spans="1:18" s="99" customFormat="1" ht="45">
+    <row r="41" spans="1:18" s="99" customFormat="1" ht="42.75">
       <c r="A41" s="87"/>
       <c r="B41" s="87" t="s">
         <v>396</v>
@@ -26655,7 +26131,7 @@
       <c r="Q43" s="87"/>
       <c r="R43" s="87"/>
     </row>
-    <row r="44" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="44" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A44" s="87"/>
       <c r="B44" s="87" t="s">
         <v>403</v>
@@ -26683,7 +26159,7 @@
       <c r="Q44" s="87"/>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="1:18" ht="45">
+    <row r="45" spans="1:18" ht="28.5">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
         <v>405</v>
@@ -26711,7 +26187,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:18" ht="30">
+    <row r="46" spans="1:18" ht="28.5">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>407</v>
@@ -26793,7 +26269,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="1:18" ht="30">
+    <row r="49" spans="1:18" ht="28.5">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>413</v>
@@ -26821,7 +26297,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="1:18" ht="45">
+    <row r="50" spans="1:18" ht="28.5">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>415</v>
@@ -26903,7 +26379,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="1:18" ht="30">
+    <row r="53" spans="1:18" ht="28.5">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
         <v>421</v>
@@ -26931,7 +26407,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="1:18" ht="30">
+    <row r="54" spans="1:18" ht="28.5">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
         <v>423</v>
@@ -26959,7 +26435,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="1:18" ht="45">
+    <row r="55" spans="1:18" ht="42.75">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
         <v>425</v>
@@ -27015,7 +26491,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="1:18" ht="45">
+    <row r="57" spans="1:18" ht="28.5">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
         <v>428</v>
@@ -27073,7 +26549,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="1:18" ht="75">
+    <row r="59" spans="1:18" ht="71.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
         <v>433</v>
@@ -27129,7 +26605,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="1:18" ht="75">
+    <row r="61" spans="1:18" ht="71.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
         <v>437</v>
@@ -27213,7 +26689,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="1:18" ht="45">
+    <row r="64" spans="1:18" ht="28.5">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
         <v>443</v>
@@ -27241,7 +26717,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="65" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A65" s="87"/>
       <c r="B65" s="87" t="s">
         <v>445</v>
@@ -27269,7 +26745,7 @@
       <c r="Q65" s="87"/>
       <c r="R65" s="87"/>
     </row>
-    <row r="66" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="66" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A66" s="87"/>
       <c r="B66" s="87" t="s">
         <v>447</v>
@@ -27325,7 +26801,7 @@
       <c r="Q67" s="87"/>
       <c r="R67" s="87"/>
     </row>
-    <row r="68" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="68" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A68" s="80"/>
       <c r="B68" s="80" t="s">
         <v>451</v>
@@ -27381,7 +26857,7 @@
       <c r="Q69" s="80"/>
       <c r="R69" s="80"/>
     </row>
-    <row r="70" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="70" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A70" s="80"/>
       <c r="B70" s="80" t="s">
         <v>439</v>
@@ -27493,7 +26969,7 @@
       <c r="Q73" s="80"/>
       <c r="R73" s="80"/>
     </row>
-    <row r="74" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="74" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A74" s="87"/>
       <c r="B74" s="87" t="s">
         <v>458</v>
@@ -27521,7 +26997,7 @@
       <c r="Q74" s="87"/>
       <c r="R74" s="87"/>
     </row>
-    <row r="75" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="75" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A75" s="87"/>
       <c r="B75" s="87" t="s">
         <v>461</v>
@@ -27577,7 +27053,7 @@
       <c r="Q76" s="80"/>
       <c r="R76" s="80"/>
     </row>
-    <row r="77" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="77" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A77" s="87"/>
       <c r="B77" s="87" t="s">
         <v>463</v>
@@ -27605,7 +27081,7 @@
       <c r="Q77" s="87"/>
       <c r="R77" s="87"/>
     </row>
-    <row r="78" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="78" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A78" s="80"/>
       <c r="B78" s="80" t="s">
         <v>223</v>
@@ -27709,7 +27185,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="1:18" s="95" customFormat="1">
+    <row r="82" spans="1:18" s="95" customFormat="1" ht="15">
       <c r="A82" s="92">
         <v>3</v>
       </c>
@@ -27733,7 +27209,7 @@
       <c r="Q82" s="92"/>
       <c r="R82" s="92"/>
     </row>
-    <row r="83" spans="1:18" s="105" customFormat="1" ht="240">
+    <row r="83" spans="1:18" s="105" customFormat="1" ht="213.75">
       <c r="A83" s="79"/>
       <c r="B83" s="79" t="s">
         <v>472</v>
@@ -27901,7 +27377,7 @@
       <c r="Q88" s="80"/>
       <c r="R88" s="80"/>
     </row>
-    <row r="89" spans="1:18" ht="45">
+    <row r="89" spans="1:18" ht="42.75">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
         <v>483</v>
@@ -27981,7 +27457,7 @@
       <c r="Q91" s="80"/>
       <c r="R91" s="80"/>
     </row>
-    <row r="92" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="92" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A92" s="80"/>
       <c r="B92" s="80" t="s">
         <v>488</v>
@@ -28039,7 +27515,7 @@
       <c r="Q93" s="87"/>
       <c r="R93" s="87"/>
     </row>
-    <row r="94" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="94" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A94" s="87"/>
       <c r="B94" s="87" t="s">
         <v>493</v>
@@ -28123,7 +27599,7 @@
       <c r="Q96" s="87"/>
       <c r="R96" s="87"/>
     </row>
-    <row r="97" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="97" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A97" s="87"/>
       <c r="B97" s="87" t="s">
         <v>497</v>
@@ -28153,7 +27629,7 @@
       <c r="Q97" s="87"/>
       <c r="R97" s="87"/>
     </row>
-    <row r="98" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="98" spans="1:18" s="100" customFormat="1">
       <c r="A98" s="80"/>
       <c r="B98" s="80" t="s">
         <v>500</v>
@@ -28181,7 +27657,7 @@
       <c r="Q98" s="80"/>
       <c r="R98" s="80"/>
     </row>
-    <row r="99" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="99" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A99" s="87"/>
       <c r="B99" s="87" t="s">
         <v>502</v>
@@ -28209,7 +27685,7 @@
       <c r="Q99" s="87"/>
       <c r="R99" s="87"/>
     </row>
-    <row r="100" spans="1:18" s="100" customFormat="1" ht="60">
+    <row r="100" spans="1:18" s="100" customFormat="1" ht="57">
       <c r="A100" s="80"/>
       <c r="B100" s="80" t="s">
         <v>504</v>
@@ -28293,7 +27769,7 @@
       <c r="Q102" s="80"/>
       <c r="R102" s="80"/>
     </row>
-    <row r="103" spans="1:18" s="99" customFormat="1" ht="45">
+    <row r="103" spans="1:18" s="99" customFormat="1" ht="42.75">
       <c r="A103" s="87"/>
       <c r="B103" s="87" t="s">
         <v>223</v>
@@ -28321,7 +27797,7 @@
       <c r="Q103" s="87"/>
       <c r="R103" s="87"/>
     </row>
-    <row r="104" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="104" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A104" s="80"/>
       <c r="B104" s="80" t="s">
         <v>265</v>
@@ -28377,7 +27853,7 @@
       <c r="Q105" s="80"/>
       <c r="R105" s="80"/>
     </row>
-    <row r="106" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="106" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A106" s="80"/>
       <c r="B106" s="80" t="s">
         <v>512</v>
@@ -28433,7 +27909,7 @@
       <c r="Q107" s="80"/>
       <c r="R107" s="80"/>
     </row>
-    <row r="108" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="108" spans="1:18" s="99" customFormat="1" ht="57">
       <c r="A108" s="87"/>
       <c r="B108" s="87" t="s">
         <v>469</v>
@@ -28483,7 +27959,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="1:18" s="95" customFormat="1">
+    <row r="110" spans="1:18" s="95" customFormat="1" ht="15">
       <c r="A110" s="92">
         <v>4</v>
       </c>
@@ -28563,7 +28039,7 @@
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
     </row>
-    <row r="113" spans="1:18" s="99" customFormat="1" ht="30">
+    <row r="113" spans="1:18" s="99" customFormat="1" ht="28.5">
       <c r="A113" s="87"/>
       <c r="B113" s="87" t="s">
         <v>159</v>
@@ -28619,7 +28095,7 @@
       <c r="Q114" s="87"/>
       <c r="R114" s="87"/>
     </row>
-    <row r="115" spans="1:18" s="95" customFormat="1">
+    <row r="115" spans="1:18" s="95" customFormat="1" ht="15">
       <c r="A115" s="92">
         <v>5</v>
       </c>
@@ -28644,26 +28120,26 @@
       <c r="R115" s="92"/>
     </row>
     <row r="116" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="261" t="s">
+      <c r="A116" s="255" t="s">
         <v>522</v>
       </c>
-      <c r="B116" s="261"/>
-      <c r="C116" s="261"/>
-      <c r="D116" s="261"/>
-      <c r="E116" s="261"/>
-      <c r="F116" s="261"/>
-      <c r="G116" s="261"/>
-      <c r="H116" s="261"/>
-      <c r="I116" s="261"/>
-      <c r="J116" s="261"/>
-      <c r="K116" s="261"/>
-      <c r="L116" s="261"/>
-      <c r="M116" s="261"/>
-      <c r="N116" s="261"/>
-      <c r="O116" s="261"/>
-      <c r="P116" s="261"/>
-      <c r="Q116" s="261"/>
-      <c r="R116" s="261"/>
+      <c r="B116" s="255"/>
+      <c r="C116" s="255"/>
+      <c r="D116" s="255"/>
+      <c r="E116" s="255"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="255"/>
+      <c r="H116" s="255"/>
+      <c r="I116" s="255"/>
+      <c r="J116" s="255"/>
+      <c r="K116" s="255"/>
+      <c r="L116" s="255"/>
+      <c r="M116" s="255"/>
+      <c r="N116" s="255"/>
+      <c r="O116" s="255"/>
+      <c r="P116" s="255"/>
+      <c r="Q116" s="255"/>
+      <c r="R116" s="255"/>
     </row>
     <row r="117" spans="1:18" s="99" customFormat="1">
       <c r="A117" s="87"/>
@@ -28749,7 +28225,7 @@
       <c r="Q119" s="80"/>
       <c r="R119" s="80"/>
     </row>
-    <row r="120" spans="1:18" s="108" customFormat="1" ht="30">
+    <row r="120" spans="1:18" s="108" customFormat="1" ht="28.5">
       <c r="A120" s="107"/>
       <c r="B120" s="107" t="s">
         <v>529</v>
@@ -28779,7 +28255,7 @@
       <c r="Q120" s="107"/>
       <c r="R120" s="107"/>
     </row>
-    <row r="121" spans="1:18" s="108" customFormat="1" ht="30">
+    <row r="121" spans="1:18" s="108" customFormat="1" ht="28.5">
       <c r="A121" s="107"/>
       <c r="B121" s="107" t="s">
         <v>532</v>
@@ -28808,28 +28284,28 @@
       <c r="R121" s="107"/>
     </row>
     <row r="122" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A122" s="261" t="s">
+      <c r="A122" s="255" t="s">
         <v>534</v>
       </c>
-      <c r="B122" s="261"/>
-      <c r="C122" s="261"/>
-      <c r="D122" s="261"/>
-      <c r="E122" s="261"/>
-      <c r="F122" s="261"/>
-      <c r="G122" s="261"/>
-      <c r="H122" s="261"/>
-      <c r="I122" s="261"/>
-      <c r="J122" s="261"/>
-      <c r="K122" s="261"/>
-      <c r="L122" s="261"/>
-      <c r="M122" s="261"/>
-      <c r="N122" s="261"/>
-      <c r="O122" s="261"/>
-      <c r="P122" s="261"/>
-      <c r="Q122" s="261"/>
-      <c r="R122" s="261"/>
-    </row>
-    <row r="123" spans="1:18" s="108" customFormat="1" ht="30">
+      <c r="B122" s="255"/>
+      <c r="C122" s="255"/>
+      <c r="D122" s="255"/>
+      <c r="E122" s="255"/>
+      <c r="F122" s="255"/>
+      <c r="G122" s="255"/>
+      <c r="H122" s="255"/>
+      <c r="I122" s="255"/>
+      <c r="J122" s="255"/>
+      <c r="K122" s="255"/>
+      <c r="L122" s="255"/>
+      <c r="M122" s="255"/>
+      <c r="N122" s="255"/>
+      <c r="O122" s="255"/>
+      <c r="P122" s="255"/>
+      <c r="Q122" s="255"/>
+      <c r="R122" s="255"/>
+    </row>
+    <row r="123" spans="1:18" s="108" customFormat="1" ht="28.5">
       <c r="A123" s="107"/>
       <c r="B123" s="107" t="s">
         <v>529</v>
@@ -28941,7 +28417,7 @@
       <c r="Q126" s="87"/>
       <c r="R126" s="87"/>
     </row>
-    <row r="127" spans="1:18" s="99" customFormat="1">
+    <row r="127" spans="1:18" s="99" customFormat="1" ht="15">
       <c r="A127" s="87"/>
       <c r="B127" s="87" t="s">
         <v>239</v>
@@ -28997,7 +28473,7 @@
       <c r="Q128" s="80"/>
       <c r="R128" s="80"/>
     </row>
-    <row r="129" spans="1:18" s="99" customFormat="1" ht="60">
+    <row r="129" spans="1:18" s="99" customFormat="1" ht="58.5">
       <c r="A129" s="87"/>
       <c r="B129" s="87" t="s">
         <v>540</v>
@@ -29053,7 +28529,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="131" spans="1:18" s="100" customFormat="1">
       <c r="A131" s="80"/>
       <c r="B131" s="80" t="s">
         <v>545</v>
@@ -29081,7 +28557,7 @@
       <c r="Q131" s="80"/>
       <c r="R131" s="80"/>
     </row>
-    <row r="132" spans="1:18" ht="30">
+    <row r="132" spans="1:18" ht="28.5">
       <c r="A132" s="5"/>
       <c r="B132" s="5" t="s">
         <v>547</v>
@@ -29109,7 +28585,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="1:18" ht="60">
+    <row r="133" spans="1:18" ht="42.75">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="s">
         <v>549</v>
@@ -29137,7 +28613,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="1:18" ht="45">
+    <row r="134" spans="1:18" ht="42.75">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
         <v>551</v>
@@ -29165,7 +28641,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="1:18" s="104" customFormat="1" ht="45">
+    <row r="135" spans="1:18" s="104" customFormat="1" ht="42.75">
       <c r="A135" s="12"/>
       <c r="B135" s="12" t="s">
         <v>553</v>
@@ -29193,7 +28669,7 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="12"/>
     </row>
-    <row r="136" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="136" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A136" s="80"/>
       <c r="B136" s="80" t="s">
         <v>553</v>
@@ -29249,7 +28725,7 @@
       <c r="Q137" s="80"/>
       <c r="R137" s="80"/>
     </row>
-    <row r="138" spans="1:18" ht="30">
+    <row r="138" spans="1:18">
       <c r="A138" s="5"/>
       <c r="B138" s="5" t="s">
         <v>309</v>
@@ -29275,7 +28751,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="1:18" s="104" customFormat="1" ht="30">
+    <row r="139" spans="1:18" s="104" customFormat="1" ht="28.5">
       <c r="A139" s="12"/>
       <c r="B139" s="80" t="s">
         <v>525</v>
@@ -29301,7 +28777,7 @@
       <c r="Q139" s="12"/>
       <c r="R139" s="12"/>
     </row>
-    <row r="140" spans="1:18" ht="45">
+    <row r="140" spans="1:18" ht="42.75">
       <c r="A140" s="5"/>
       <c r="B140" s="5" t="s">
         <v>558</v>
@@ -29354,26 +28830,26 @@
       <c r="R141" s="80"/>
     </row>
     <row r="142" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A142" s="260" t="s">
+      <c r="A142" s="254" t="s">
         <v>561</v>
       </c>
-      <c r="B142" s="260"/>
-      <c r="C142" s="260"/>
-      <c r="D142" s="260"/>
-      <c r="E142" s="260"/>
-      <c r="F142" s="260"/>
-      <c r="G142" s="260"/>
-      <c r="H142" s="260"/>
-      <c r="I142" s="260"/>
-      <c r="J142" s="260"/>
-      <c r="K142" s="260"/>
-      <c r="L142" s="260"/>
-      <c r="M142" s="260"/>
-      <c r="N142" s="260"/>
-      <c r="O142" s="260"/>
-      <c r="P142" s="260"/>
-      <c r="Q142" s="260"/>
-      <c r="R142" s="260"/>
+      <c r="B142" s="254"/>
+      <c r="C142" s="254"/>
+      <c r="D142" s="254"/>
+      <c r="E142" s="254"/>
+      <c r="F142" s="254"/>
+      <c r="G142" s="254"/>
+      <c r="H142" s="254"/>
+      <c r="I142" s="254"/>
+      <c r="J142" s="254"/>
+      <c r="K142" s="254"/>
+      <c r="L142" s="254"/>
+      <c r="M142" s="254"/>
+      <c r="N142" s="254"/>
+      <c r="O142" s="254"/>
+      <c r="P142" s="254"/>
+      <c r="Q142" s="254"/>
+      <c r="R142" s="254"/>
     </row>
     <row r="143" spans="1:18" s="100" customFormat="1">
       <c r="A143" s="80"/>
@@ -29403,7 +28879,7 @@
       <c r="Q143" s="80"/>
       <c r="R143" s="80"/>
     </row>
-    <row r="144" spans="1:18" s="100" customFormat="1" ht="90">
+    <row r="144" spans="1:18" s="100" customFormat="1" ht="85.5">
       <c r="A144" s="80"/>
       <c r="B144" s="80" t="s">
         <v>564</v>
@@ -29431,7 +28907,7 @@
       <c r="Q144" s="80"/>
       <c r="R144" s="80"/>
     </row>
-    <row r="145" spans="1:18" s="100" customFormat="1" ht="45">
+    <row r="145" spans="1:18" s="100" customFormat="1" ht="42.75">
       <c r="A145" s="80"/>
       <c r="B145" s="80" t="s">
         <v>566</v>
@@ -29460,26 +28936,26 @@
       <c r="R145" s="80"/>
     </row>
     <row r="146" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A146" s="260" t="s">
+      <c r="A146" s="254" t="s">
         <v>568</v>
       </c>
-      <c r="B146" s="260"/>
-      <c r="C146" s="260"/>
-      <c r="D146" s="260"/>
-      <c r="E146" s="260"/>
-      <c r="F146" s="260"/>
-      <c r="G146" s="260"/>
-      <c r="H146" s="260"/>
-      <c r="I146" s="260"/>
-      <c r="J146" s="260"/>
-      <c r="K146" s="260"/>
-      <c r="L146" s="260"/>
-      <c r="M146" s="260"/>
-      <c r="N146" s="260"/>
-      <c r="O146" s="260"/>
-      <c r="P146" s="260"/>
-      <c r="Q146" s="260"/>
-      <c r="R146" s="260"/>
+      <c r="B146" s="254"/>
+      <c r="C146" s="254"/>
+      <c r="D146" s="254"/>
+      <c r="E146" s="254"/>
+      <c r="F146" s="254"/>
+      <c r="G146" s="254"/>
+      <c r="H146" s="254"/>
+      <c r="I146" s="254"/>
+      <c r="J146" s="254"/>
+      <c r="K146" s="254"/>
+      <c r="L146" s="254"/>
+      <c r="M146" s="254"/>
+      <c r="N146" s="254"/>
+      <c r="O146" s="254"/>
+      <c r="P146" s="254"/>
+      <c r="Q146" s="254"/>
+      <c r="R146" s="254"/>
     </row>
     <row r="147" spans="1:18" s="100" customFormat="1">
       <c r="A147" s="80"/>
@@ -29510,28 +28986,28 @@
       <c r="R147" s="80"/>
     </row>
     <row r="148" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A148" s="260" t="s">
+      <c r="A148" s="254" t="s">
         <v>569</v>
       </c>
-      <c r="B148" s="260"/>
-      <c r="C148" s="260"/>
-      <c r="D148" s="260"/>
-      <c r="E148" s="260"/>
-      <c r="F148" s="260"/>
-      <c r="G148" s="260"/>
-      <c r="H148" s="260"/>
-      <c r="I148" s="260"/>
-      <c r="J148" s="260"/>
-      <c r="K148" s="260"/>
-      <c r="L148" s="260"/>
-      <c r="M148" s="260"/>
-      <c r="N148" s="260"/>
-      <c r="O148" s="260"/>
-      <c r="P148" s="260"/>
-      <c r="Q148" s="260"/>
-      <c r="R148" s="260"/>
-    </row>
-    <row r="149" spans="1:18" s="100" customFormat="1" ht="75">
+      <c r="B148" s="254"/>
+      <c r="C148" s="254"/>
+      <c r="D148" s="254"/>
+      <c r="E148" s="254"/>
+      <c r="F148" s="254"/>
+      <c r="G148" s="254"/>
+      <c r="H148" s="254"/>
+      <c r="I148" s="254"/>
+      <c r="J148" s="254"/>
+      <c r="K148" s="254"/>
+      <c r="L148" s="254"/>
+      <c r="M148" s="254"/>
+      <c r="N148" s="254"/>
+      <c r="O148" s="254"/>
+      <c r="P148" s="254"/>
+      <c r="Q148" s="254"/>
+      <c r="R148" s="254"/>
+    </row>
+    <row r="149" spans="1:18" s="100" customFormat="1" ht="57">
       <c r="A149" s="80"/>
       <c r="B149" s="80" t="s">
         <v>570</v>
@@ -29561,7 +29037,7 @@
       <c r="Q149" s="80"/>
       <c r="R149" s="80"/>
     </row>
-    <row r="150" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="150" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A150" s="80"/>
       <c r="B150" s="80" t="s">
         <v>354</v>
@@ -29589,7 +29065,7 @@
       <c r="Q150" s="80"/>
       <c r="R150" s="80"/>
     </row>
-    <row r="151" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="151" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A151" s="80"/>
       <c r="B151" s="80" t="s">
         <v>574</v>
@@ -29638,26 +29114,26 @@
       <c r="R152" s="80"/>
     </row>
     <row r="153" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A153" s="261" t="s">
+      <c r="A153" s="255" t="s">
         <v>576</v>
       </c>
-      <c r="B153" s="261"/>
-      <c r="C153" s="261"/>
-      <c r="D153" s="261"/>
-      <c r="E153" s="261"/>
-      <c r="F153" s="261"/>
-      <c r="G153" s="261"/>
-      <c r="H153" s="261"/>
-      <c r="I153" s="261"/>
-      <c r="J153" s="261"/>
-      <c r="K153" s="261"/>
-      <c r="L153" s="261"/>
-      <c r="M153" s="261"/>
-      <c r="N153" s="261"/>
-      <c r="O153" s="261"/>
-      <c r="P153" s="261"/>
-      <c r="Q153" s="261"/>
-      <c r="R153" s="261"/>
+      <c r="B153" s="255"/>
+      <c r="C153" s="255"/>
+      <c r="D153" s="255"/>
+      <c r="E153" s="255"/>
+      <c r="F153" s="255"/>
+      <c r="G153" s="255"/>
+      <c r="H153" s="255"/>
+      <c r="I153" s="255"/>
+      <c r="J153" s="255"/>
+      <c r="K153" s="255"/>
+      <c r="L153" s="255"/>
+      <c r="M153" s="255"/>
+      <c r="N153" s="255"/>
+      <c r="O153" s="255"/>
+      <c r="P153" s="255"/>
+      <c r="Q153" s="255"/>
+      <c r="R153" s="255"/>
     </row>
     <row r="154" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="107"/>
@@ -29687,7 +29163,7 @@
       <c r="Q154" s="107"/>
       <c r="R154" s="107"/>
     </row>
-    <row r="155" spans="1:18" s="108" customFormat="1" ht="30">
+    <row r="155" spans="1:18" s="108" customFormat="1" ht="28.5">
       <c r="A155" s="107"/>
       <c r="B155" s="107" t="s">
         <v>579</v>
@@ -29715,7 +29191,7 @@
       <c r="Q155" s="107"/>
       <c r="R155" s="107"/>
     </row>
-    <row r="156" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="156" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A156" s="80"/>
       <c r="B156" s="80" t="s">
         <v>581</v>
@@ -29743,7 +29219,7 @@
       <c r="Q156" s="80"/>
       <c r="R156" s="80"/>
     </row>
-    <row r="157" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="157" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A157" s="80"/>
       <c r="B157" s="80" t="s">
         <v>583</v>
@@ -29771,7 +29247,7 @@
       <c r="Q157" s="80"/>
       <c r="R157" s="80"/>
     </row>
-    <row r="158" spans="1:18" s="104" customFormat="1" ht="30">
+    <row r="158" spans="1:18" s="104" customFormat="1" ht="28.5">
       <c r="A158" s="12"/>
       <c r="B158" s="12" t="s">
         <v>584</v>
@@ -29799,7 +29275,7 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="12"/>
     </row>
-    <row r="159" spans="1:18" s="104" customFormat="1" ht="120">
+    <row r="159" spans="1:18" s="104" customFormat="1" ht="85.5">
       <c r="A159" s="12"/>
       <c r="B159" s="12" t="s">
         <v>586</v>
@@ -29855,7 +29331,7 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="12"/>
     </row>
-    <row r="161" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="161" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A161" s="80"/>
       <c r="B161" s="80" t="s">
         <v>553</v>
@@ -29941,7 +29417,7 @@
       <c r="Q163" s="80"/>
       <c r="R163" s="80"/>
     </row>
-    <row r="164" spans="1:18" s="100" customFormat="1" ht="120">
+    <row r="164" spans="1:18" s="100" customFormat="1" ht="101.25">
       <c r="A164" s="80"/>
       <c r="B164" s="80" t="s">
         <v>136</v>
@@ -29969,7 +29445,7 @@
       <c r="Q164" s="80"/>
       <c r="R164" s="80"/>
     </row>
-    <row r="165" spans="1:18" s="100" customFormat="1" ht="105">
+    <row r="165" spans="1:18" s="100" customFormat="1" ht="99.75">
       <c r="A165" s="80"/>
       <c r="B165" s="80" t="s">
         <v>596</v>
@@ -29997,7 +29473,7 @@
       <c r="Q165" s="80"/>
       <c r="R165" s="80"/>
     </row>
-    <row r="166" spans="1:18" s="104" customFormat="1" ht="30">
+    <row r="166" spans="1:18" s="104" customFormat="1" ht="28.5">
       <c r="A166" s="12"/>
       <c r="B166" s="12" t="s">
         <v>598</v>
@@ -30025,7 +29501,7 @@
       <c r="Q166" s="12"/>
       <c r="R166" s="12"/>
     </row>
-    <row r="167" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="167" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A167" s="80"/>
       <c r="B167" s="80" t="s">
         <v>227</v>
@@ -30081,7 +29557,7 @@
       <c r="Q168" s="80"/>
       <c r="R168" s="80"/>
     </row>
-    <row r="169" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="169" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A169" s="80"/>
       <c r="B169" s="80" t="s">
         <v>312</v>
@@ -30109,7 +29585,7 @@
       <c r="Q169" s="80"/>
       <c r="R169" s="80"/>
     </row>
-    <row r="170" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="170" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A170" s="80"/>
       <c r="B170" s="80" t="s">
         <v>601</v>
@@ -30137,7 +29613,7 @@
       <c r="Q170" s="80"/>
       <c r="R170" s="80"/>
     </row>
-    <row r="171" spans="1:18" s="100" customFormat="1" ht="120">
+    <row r="171" spans="1:18" s="100" customFormat="1" ht="99.75">
       <c r="A171" s="80"/>
       <c r="B171" s="80" t="s">
         <v>601</v>
@@ -30195,7 +29671,7 @@
       <c r="Q172" s="80"/>
       <c r="R172" s="80"/>
     </row>
-    <row r="173" spans="1:18" s="100" customFormat="1" ht="75">
+    <row r="173" spans="1:18" s="100" customFormat="1" ht="71.25">
       <c r="A173" s="80"/>
       <c r="B173" s="80" t="s">
         <v>604</v>
@@ -30223,7 +29699,7 @@
       <c r="Q173" s="80"/>
       <c r="R173" s="80"/>
     </row>
-    <row r="174" spans="1:18" s="100" customFormat="1" ht="105">
+    <row r="174" spans="1:18" s="100" customFormat="1" ht="99.75">
       <c r="A174" s="80"/>
       <c r="B174" s="80" t="s">
         <v>606</v>
@@ -30253,7 +29729,7 @@
       <c r="Q174" s="80"/>
       <c r="R174" s="80"/>
     </row>
-    <row r="175" spans="1:18" s="100" customFormat="1" ht="30">
+    <row r="175" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A175" s="80"/>
       <c r="B175" s="80" t="s">
         <v>527</v>
@@ -30282,28 +29758,28 @@
       <c r="R175" s="80"/>
     </row>
     <row r="176" spans="1:18" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A176" s="260" t="s">
+      <c r="A176" s="254" t="s">
         <v>610</v>
       </c>
-      <c r="B176" s="260"/>
-      <c r="C176" s="260"/>
-      <c r="D176" s="260"/>
-      <c r="E176" s="260"/>
-      <c r="F176" s="260"/>
-      <c r="G176" s="260"/>
-      <c r="H176" s="260"/>
-      <c r="I176" s="260"/>
-      <c r="J176" s="260"/>
-      <c r="K176" s="260"/>
-      <c r="L176" s="260"/>
-      <c r="M176" s="260"/>
-      <c r="N176" s="260"/>
-      <c r="O176" s="260"/>
-      <c r="P176" s="260"/>
-      <c r="Q176" s="260"/>
-      <c r="R176" s="260"/>
-    </row>
-    <row r="177" spans="1:18" s="100" customFormat="1" ht="30">
+      <c r="B176" s="254"/>
+      <c r="C176" s="254"/>
+      <c r="D176" s="254"/>
+      <c r="E176" s="254"/>
+      <c r="F176" s="254"/>
+      <c r="G176" s="254"/>
+      <c r="H176" s="254"/>
+      <c r="I176" s="254"/>
+      <c r="J176" s="254"/>
+      <c r="K176" s="254"/>
+      <c r="L176" s="254"/>
+      <c r="M176" s="254"/>
+      <c r="N176" s="254"/>
+      <c r="O176" s="254"/>
+      <c r="P176" s="254"/>
+      <c r="Q176" s="254"/>
+      <c r="R176" s="254"/>
+    </row>
+    <row r="177" spans="1:18" s="100" customFormat="1" ht="28.5">
       <c r="A177" s="80"/>
       <c r="B177" s="80" t="s">
         <v>611</v>
@@ -30361,30 +29837,30 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="1:18" s="112" customFormat="1">
-      <c r="A179" s="257" t="s">
+    <row r="179" spans="1:18" s="112" customFormat="1" ht="15">
+      <c r="A179" s="251" t="s">
         <v>616</v>
       </c>
-      <c r="B179" s="257"/>
-      <c r="C179" s="257"/>
-      <c r="D179" s="257"/>
-      <c r="E179" s="257"/>
-      <c r="F179" s="257"/>
-      <c r="G179" s="257"/>
-      <c r="H179" s="257"/>
-      <c r="I179" s="257"/>
-      <c r="J179" s="257"/>
-      <c r="K179" s="257"/>
-      <c r="L179" s="257"/>
-      <c r="M179" s="257"/>
-      <c r="N179" s="257"/>
-      <c r="O179" s="257"/>
-      <c r="P179" s="257"/>
-      <c r="Q179" s="257"/>
-      <c r="R179" s="257"/>
+      <c r="B179" s="251"/>
+      <c r="C179" s="251"/>
+      <c r="D179" s="251"/>
+      <c r="E179" s="251"/>
+      <c r="F179" s="251"/>
+      <c r="G179" s="251"/>
+      <c r="H179" s="251"/>
+      <c r="I179" s="251"/>
+      <c r="J179" s="251"/>
+      <c r="K179" s="251"/>
+      <c r="L179" s="251"/>
+      <c r="M179" s="251"/>
+      <c r="N179" s="251"/>
+      <c r="O179" s="251"/>
+      <c r="P179" s="251"/>
+      <c r="Q179" s="251"/>
+      <c r="R179" s="251"/>
     </row>
     <row r="180" spans="1:18" s="112" customFormat="1">
-      <c r="A180" s="258" t="s">
+      <c r="A180" s="252" t="s">
         <v>239</v>
       </c>
       <c r="B180" s="113" t="s">
@@ -30413,8 +29889,8 @@
       <c r="Q180" s="113"/>
       <c r="R180" s="113"/>
     </row>
-    <row r="181" spans="1:18" s="112" customFormat="1" ht="30">
-      <c r="A181" s="258"/>
+    <row r="181" spans="1:18" s="112" customFormat="1" ht="28.5">
+      <c r="A181" s="252"/>
       <c r="B181" s="113" t="s">
         <v>619</v>
       </c>
@@ -30442,7 +29918,7 @@
       <c r="R181" s="113"/>
     </row>
     <row r="182" spans="1:18" s="112" customFormat="1">
-      <c r="A182" s="258"/>
+      <c r="A182" s="252"/>
       <c r="B182" s="113" t="s">
         <v>621</v>
       </c>
@@ -30470,7 +29946,7 @@
       <c r="R182" s="113"/>
     </row>
     <row r="183" spans="1:18" s="112" customFormat="1">
-      <c r="A183" s="258"/>
+      <c r="A183" s="252"/>
       <c r="B183" s="113" t="s">
         <v>623</v>
       </c>
@@ -30498,7 +29974,7 @@
       <c r="R183" s="113"/>
     </row>
     <row r="184" spans="1:18" s="112" customFormat="1">
-      <c r="A184" s="258"/>
+      <c r="A184" s="252"/>
       <c r="B184" s="113" t="s">
         <v>625</v>
       </c>
@@ -30526,7 +30002,7 @@
       <c r="R184" s="113"/>
     </row>
     <row r="185" spans="1:18" s="112" customFormat="1">
-      <c r="A185" s="258"/>
+      <c r="A185" s="252"/>
       <c r="B185" s="113" t="s">
         <v>627</v>
       </c>
@@ -30554,7 +30030,7 @@
       <c r="R185" s="113"/>
     </row>
     <row r="186" spans="1:18" s="112" customFormat="1">
-      <c r="A186" s="258"/>
+      <c r="A186" s="252"/>
       <c r="B186" s="113" t="s">
         <v>629</v>
       </c>
@@ -30582,7 +30058,7 @@
       <c r="R186" s="113"/>
     </row>
     <row r="187" spans="1:18" s="112" customFormat="1">
-      <c r="A187" s="258"/>
+      <c r="A187" s="252"/>
       <c r="B187" s="113" t="s">
         <v>631</v>
       </c>
@@ -30610,7 +30086,7 @@
       <c r="R187" s="113"/>
     </row>
     <row r="188" spans="1:18" s="112" customFormat="1">
-      <c r="A188" s="258"/>
+      <c r="A188" s="252"/>
       <c r="B188" s="113" t="s">
         <v>633</v>
       </c>
@@ -30638,7 +30114,7 @@
       <c r="R188" s="113"/>
     </row>
     <row r="189" spans="1:18" s="112" customFormat="1">
-      <c r="A189" s="258"/>
+      <c r="A189" s="252"/>
       <c r="B189" s="113" t="s">
         <v>635</v>
       </c>
@@ -30666,7 +30142,7 @@
       <c r="R189" s="113"/>
     </row>
     <row r="190" spans="1:18" s="112" customFormat="1">
-      <c r="A190" s="258"/>
+      <c r="A190" s="252"/>
       <c r="B190" s="113" t="s">
         <v>637</v>
       </c>
@@ -30694,7 +30170,7 @@
       <c r="R190" s="113"/>
     </row>
     <row r="191" spans="1:18" s="112" customFormat="1">
-      <c r="A191" s="258"/>
+      <c r="A191" s="252"/>
       <c r="B191" s="113" t="s">
         <v>639</v>
       </c>
@@ -30722,7 +30198,7 @@
       <c r="R191" s="113"/>
     </row>
     <row r="192" spans="1:18" s="112" customFormat="1">
-      <c r="A192" s="258"/>
+      <c r="A192" s="252"/>
       <c r="B192" s="113" t="s">
         <v>641</v>
       </c>
@@ -30750,7 +30226,7 @@
       <c r="R192" s="113"/>
     </row>
     <row r="193" spans="1:18" s="112" customFormat="1">
-      <c r="A193" s="258"/>
+      <c r="A193" s="252"/>
       <c r="B193" s="113" t="s">
         <v>643</v>
       </c>
@@ -30778,7 +30254,7 @@
       <c r="R193" s="113"/>
     </row>
     <row r="194" spans="1:18" s="112" customFormat="1">
-      <c r="A194" s="258"/>
+      <c r="A194" s="252"/>
       <c r="B194" s="113" t="s">
         <v>645</v>
       </c>
@@ -30806,7 +30282,7 @@
       <c r="R194" s="113"/>
     </row>
     <row r="195" spans="1:18" s="112" customFormat="1">
-      <c r="A195" s="258"/>
+      <c r="A195" s="252"/>
       <c r="B195" s="113" t="s">
         <v>647</v>
       </c>
@@ -30834,7 +30310,7 @@
       <c r="R195" s="113"/>
     </row>
     <row r="196" spans="1:18" s="112" customFormat="1">
-      <c r="A196" s="258"/>
+      <c r="A196" s="252"/>
       <c r="B196" s="113" t="s">
         <v>649</v>
       </c>
@@ -30862,7 +30338,7 @@
       <c r="R196" s="113"/>
     </row>
     <row r="197" spans="1:18" s="112" customFormat="1">
-      <c r="A197" s="258"/>
+      <c r="A197" s="252"/>
       <c r="B197" s="113" t="s">
         <v>651</v>
       </c>
@@ -30889,8 +30365,8 @@
       <c r="Q197" s="113"/>
       <c r="R197" s="113"/>
     </row>
-    <row r="198" spans="1:18" s="112" customFormat="1" ht="30">
-      <c r="A198" s="259" t="s">
+    <row r="198" spans="1:18" s="112" customFormat="1">
+      <c r="A198" s="253" t="s">
         <v>653</v>
       </c>
       <c r="B198" s="113" t="s">
@@ -30920,7 +30396,7 @@
       <c r="R198" s="113"/>
     </row>
     <row r="199" spans="1:18" s="112" customFormat="1">
-      <c r="A199" s="259"/>
+      <c r="A199" s="253"/>
       <c r="B199" s="113" t="s">
         <v>656</v>
       </c>
@@ -30948,7 +30424,7 @@
       <c r="R199" s="113"/>
     </row>
     <row r="200" spans="1:18" s="112" customFormat="1">
-      <c r="A200" s="259"/>
+      <c r="A200" s="253"/>
       <c r="B200" s="113" t="s">
         <v>658</v>
       </c>
@@ -30976,7 +30452,7 @@
       <c r="R200" s="113"/>
     </row>
     <row r="201" spans="1:18" s="112" customFormat="1">
-      <c r="A201" s="259"/>
+      <c r="A201" s="253"/>
       <c r="B201" s="113" t="s">
         <v>660</v>
       </c>
@@ -31004,7 +30480,7 @@
       <c r="R201" s="113"/>
     </row>
     <row r="202" spans="1:18" s="112" customFormat="1">
-      <c r="A202" s="259"/>
+      <c r="A202" s="253"/>
       <c r="B202" s="113" t="s">
         <v>662</v>
       </c>
@@ -31032,7 +30508,7 @@
       <c r="R202" s="113"/>
     </row>
     <row r="203" spans="1:18" s="112" customFormat="1">
-      <c r="A203" s="259"/>
+      <c r="A203" s="253"/>
       <c r="B203" s="113" t="s">
         <v>664</v>
       </c>
@@ -31060,7 +30536,7 @@
       <c r="R203" s="113"/>
     </row>
     <row r="204" spans="1:18" s="112" customFormat="1">
-      <c r="A204" s="259"/>
+      <c r="A204" s="253"/>
       <c r="B204" s="113" t="s">
         <v>666</v>
       </c>
@@ -31088,7 +30564,7 @@
       <c r="R204" s="113"/>
     </row>
     <row r="205" spans="1:18" s="112" customFormat="1">
-      <c r="A205" s="259"/>
+      <c r="A205" s="253"/>
       <c r="B205" s="113" t="s">
         <v>668</v>
       </c>
@@ -31115,8 +30591,8 @@
       <c r="Q205" s="113"/>
       <c r="R205" s="113"/>
     </row>
-    <row r="206" spans="1:18" s="112" customFormat="1" ht="30">
-      <c r="A206" s="259"/>
+    <row r="206" spans="1:18" s="112" customFormat="1">
+      <c r="A206" s="253"/>
       <c r="B206" s="113" t="s">
         <v>670</v>
       </c>
@@ -31143,7 +30619,7 @@
       <c r="Q206" s="113"/>
       <c r="R206" s="113"/>
     </row>
-    <row r="207" spans="1:18" s="207" customFormat="1" ht="42">
+    <row r="207" spans="1:18" s="207" customFormat="1" ht="40.5">
       <c r="B207" s="207" t="s">
         <v>837</v>
       </c>
@@ -31153,7 +30629,7 @@
       <c r="I207" s="207" t="s">
         <v>352</v>
       </c>
-      <c r="K207" s="251" t="s">
+      <c r="K207" s="244" t="s">
         <v>190</v>
       </c>
     </row>
@@ -31179,84 +30655,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6145" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>173</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>173</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6145" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6146" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>170</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>170</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6146" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6147" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6147" r:id="rId7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6145" r:id="rId2"/>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6146" r:id="rId3"/>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="6147" r:id="rId4"/>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -31267,48 +30670,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="H52" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="42" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="6" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="67" customWidth="1"/>
+    <col min="9" max="9" width="51.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="67" customWidth="1"/>
     <col min="12" max="12" width="52" style="6" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="6"/>
+    <col min="19" max="19" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.875" style="6"/>
     <col min="24" max="24" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="6"/>
+    <col min="25" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="256" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="262"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="60">
+      <c r="B1" s="256"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -31371,7 +30774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="30">
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="28.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -31402,21 +30805,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="90">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="85.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="237" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="252" t="s">
+      <c r="J4" s="245" t="s">
         <v>192</v>
       </c>
       <c r="K4" s="74" t="s">
@@ -31425,11 +30828,11 @@
       <c r="L4" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="212" t="s">
+      <c r="M4" s="238"/>
+      <c r="N4" s="210" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="244"/>
+      <c r="O4" s="237"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -31468,7 +30871,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="105">
+    <row r="6" spans="1:21" ht="85.5">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>206</v>
@@ -31561,7 +30964,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="30">
+    <row r="9" spans="1:21" ht="28.5">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>212</v>
@@ -31592,7 +30995,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="30">
+    <row r="10" spans="1:21" ht="28.5">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>214</v>
@@ -31623,7 +31026,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="30">
+    <row r="11" spans="1:21">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>216</v>
@@ -31654,36 +31057,38 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" s="246" customFormat="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="212" t="s">
-        <v>847</v>
-      </c>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212" t="s">
-        <v>846</v>
-      </c>
-      <c r="J12" s="212" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="212"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="212"/>
-      <c r="R12" s="212"/>
-      <c r="S12" s="212"/>
-      <c r="T12" s="212"/>
-      <c r="U12" s="212"/>
-    </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="12" spans="1:21" s="239" customFormat="1">
+      <c r="A12" s="210"/>
+      <c r="B12" s="210" t="s">
+        <v>845</v>
+      </c>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210" t="s">
+        <v>844</v>
+      </c>
+      <c r="J12" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="210"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="210"/>
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+    </row>
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A13" s="8"/>
       <c r="B13" s="10" t="s">
         <v>136</v>
@@ -31745,38 +31150,38 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" s="216" customFormat="1" ht="30">
-      <c r="A15" s="215"/>
-      <c r="B15" s="212" t="s">
-        <v>848</v>
-      </c>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212" t="s">
-        <v>849</v>
-      </c>
-      <c r="J15" s="212" t="s">
+    <row r="15" spans="1:21" s="214" customFormat="1" ht="28.5">
+      <c r="A15" s="213"/>
+      <c r="B15" s="210" t="s">
+        <v>846</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210" t="s">
+        <v>847</v>
+      </c>
+      <c r="J15" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="212"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212" t="s">
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="O15" s="212"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="215"/>
-      <c r="R15" s="215"/>
-      <c r="S15" s="215"/>
-      <c r="T15" s="215"/>
-      <c r="U15" s="215"/>
-    </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="30">
+      <c r="O15" s="210"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="213"/>
+      <c r="T15" s="213"/>
+      <c r="U15" s="213"/>
+    </row>
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A16" s="8"/>
       <c r="B16" s="10" t="s">
         <v>221</v>
@@ -31807,40 +31212,40 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" s="234" customFormat="1" ht="30">
-      <c r="A17" s="232"/>
-      <c r="B17" s="227" t="s">
-        <v>850</v>
-      </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227" t="s">
-        <v>886</v>
-      </c>
-      <c r="J17" s="227" t="s">
+    <row r="17" spans="1:21" s="230" customFormat="1" ht="28.5">
+      <c r="A17" s="228"/>
+      <c r="B17" s="225" t="s">
+        <v>848</v>
+      </c>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="225"/>
+      <c r="I17" s="225" t="s">
+        <v>881</v>
+      </c>
+      <c r="J17" s="225" t="s">
         <v>315</v>
       </c>
-      <c r="K17" s="227"/>
-      <c r="L17" s="233" t="s">
-        <v>895</v>
-      </c>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227" t="s">
+      <c r="K17" s="225"/>
+      <c r="L17" s="229" t="s">
+        <v>890</v>
+      </c>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225" t="s">
         <v>315</v>
       </c>
-      <c r="O17" s="227"/>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="232"/>
-      <c r="T17" s="232"/>
-      <c r="U17" s="232"/>
-    </row>
-    <row r="18" spans="1:21" ht="30">
+      <c r="O17" s="225"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="228"/>
+      <c r="R17" s="228"/>
+      <c r="S17" s="228"/>
+      <c r="T17" s="228"/>
+      <c r="U17" s="228"/>
+    </row>
+    <row r="18" spans="1:21" ht="28.5">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>223</v>
@@ -31871,7 +31276,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" ht="45">
+    <row r="19" spans="1:21" ht="28.5">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>223</v>
@@ -31904,7 +31309,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" ht="240">
+    <row r="20" spans="1:21" ht="220.5">
       <c r="A20" s="5"/>
       <c r="B20" s="10" t="s">
         <v>227</v>
@@ -31941,71 +31346,71 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" s="205" customFormat="1" ht="30">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:21" s="239" customFormat="1" ht="28.5">
+      <c r="A21" s="210"/>
+      <c r="B21" s="210" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210" t="s">
+        <v>849</v>
+      </c>
+      <c r="J21" s="210" t="s">
         <v>315</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" s="242" customFormat="1">
-      <c r="A22" s="241"/>
-      <c r="B22" s="247" t="s">
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="210"/>
+      <c r="N21" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="210"/>
+      <c r="P21" s="210"/>
+      <c r="Q21" s="210"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+    </row>
+    <row r="22" spans="1:21" s="235" customFormat="1">
+      <c r="A22" s="234"/>
+      <c r="B22" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="247"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="247"/>
-      <c r="I22" s="241" t="s">
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="234" t="s">
         <v>231</v>
       </c>
-      <c r="J22" s="227" t="s">
+      <c r="J22" s="225" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="236" t="s">
+      <c r="K22" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="L22" s="227"/>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236" t="s">
+      <c r="L22" s="225"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232" t="s">
         <v>232</v>
       </c>
-      <c r="O22" s="247"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="241"/>
-    </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="30">
+      <c r="O22" s="240"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="234"/>
+      <c r="R22" s="234"/>
+      <c r="S22" s="234"/>
+      <c r="T22" s="234"/>
+      <c r="U22" s="234"/>
+    </row>
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A23" s="8"/>
       <c r="B23" s="10" t="s">
         <v>233</v>
@@ -32038,7 +31443,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="81" customFormat="1" ht="60">
+    <row r="24" spans="1:21" s="81" customFormat="1" ht="57">
       <c r="A24" s="78"/>
       <c r="B24" s="79" t="s">
         <v>237</v>
@@ -32069,7 +31474,7 @@
       <c r="T24" s="78"/>
       <c r="U24" s="78"/>
     </row>
-    <row r="25" spans="1:21" s="81" customFormat="1" ht="90">
+    <row r="25" spans="1:21" s="81" customFormat="1" ht="57">
       <c r="A25" s="78"/>
       <c r="B25" s="79" t="s">
         <v>239</v>
@@ -32100,7 +31505,7 @@
       <c r="T25" s="78"/>
       <c r="U25" s="78"/>
     </row>
-    <row r="26" spans="1:21" s="81" customFormat="1" ht="45">
+    <row r="26" spans="1:21" s="81" customFormat="1" ht="42.75">
       <c r="A26" s="78"/>
       <c r="B26" s="79" t="s">
         <v>241</v>
@@ -32132,7 +31537,7 @@
       <c r="T26" s="78"/>
       <c r="U26" s="78"/>
     </row>
-    <row r="27" spans="1:21" s="81" customFormat="1">
+    <row r="27" spans="1:21" s="81" customFormat="1" ht="15">
       <c r="A27" s="78"/>
       <c r="B27" s="79" t="s">
         <v>244</v>
@@ -32150,12 +31555,12 @@
         <v>232</v>
       </c>
       <c r="K27" s="80"/>
-      <c r="L27" s="263" t="s">
-        <v>887</v>
+      <c r="L27" s="257" t="s">
+        <v>882</v>
       </c>
       <c r="M27" s="77"/>
       <c r="N27" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
@@ -32164,7 +31569,7 @@
       <c r="T27" s="78"/>
       <c r="U27" s="78"/>
     </row>
-    <row r="28" spans="1:21" s="81" customFormat="1">
+    <row r="28" spans="1:21" s="81" customFormat="1" ht="15">
       <c r="A28" s="78"/>
       <c r="B28" s="79" t="s">
         <v>246</v>
@@ -32182,10 +31587,10 @@
         <v>232</v>
       </c>
       <c r="K28" s="80"/>
-      <c r="L28" s="264"/>
+      <c r="L28" s="258"/>
       <c r="M28" s="77"/>
       <c r="N28" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
@@ -32194,7 +31599,7 @@
       <c r="T28" s="78"/>
       <c r="U28" s="78"/>
     </row>
-    <row r="29" spans="1:21" s="81" customFormat="1">
+    <row r="29" spans="1:21" s="81" customFormat="1" ht="15">
       <c r="A29" s="78"/>
       <c r="B29" s="79" t="s">
         <v>248</v>
@@ -32212,10 +31617,10 @@
         <v>232</v>
       </c>
       <c r="K29" s="80"/>
-      <c r="L29" s="265"/>
+      <c r="L29" s="259"/>
       <c r="M29" s="77"/>
       <c r="N29" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
@@ -32224,7 +31629,7 @@
       <c r="T29" s="78"/>
       <c r="U29" s="78"/>
     </row>
-    <row r="30" spans="1:21" s="81" customFormat="1" ht="45">
+    <row r="30" spans="1:21" s="81" customFormat="1" ht="42.75">
       <c r="A30" s="78"/>
       <c r="B30" s="79" t="s">
         <v>239</v>
@@ -32311,7 +31716,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="33" spans="1:21" s="9" customFormat="1">
       <c r="A33" s="8"/>
       <c r="B33" s="10" t="s">
         <v>212</v>
@@ -32342,7 +31747,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A34" s="8"/>
       <c r="B34" s="10" t="s">
         <v>255</v>
@@ -32373,7 +31778,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="45">
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A35" s="8"/>
       <c r="B35" s="10" t="s">
         <v>256</v>
@@ -32404,7 +31809,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="36" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A36" s="8"/>
       <c r="B36" s="10" t="s">
         <v>256</v>
@@ -32435,7 +31840,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" ht="90">
+    <row r="37" spans="1:21" s="9" customFormat="1" ht="85.5">
       <c r="A37" s="8"/>
       <c r="B37" s="10" t="s">
         <v>256</v>
@@ -32472,7 +31877,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" ht="60">
+    <row r="38" spans="1:21" ht="57">
       <c r="A38" s="5"/>
       <c r="B38" s="10" t="s">
         <v>261</v>
@@ -32503,36 +31908,36 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" s="205" customFormat="1" ht="45">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7" t="s">
+    <row r="39" spans="1:21" s="271" customFormat="1" ht="42.75">
+      <c r="A39" s="270"/>
+      <c r="B39" s="270" t="s">
+        <v>851</v>
+      </c>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="270"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="270"/>
+      <c r="I39" s="270" t="s">
+        <v>852</v>
+      </c>
+      <c r="J39" s="270" t="s">
+        <v>888</v>
+      </c>
+      <c r="K39" s="270"/>
+      <c r="L39" s="270"/>
+      <c r="M39" s="270"/>
+      <c r="N39" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
+      <c r="O39" s="270"/>
+      <c r="P39" s="270"/>
+      <c r="Q39" s="270"/>
+      <c r="R39" s="270"/>
+      <c r="S39" s="270"/>
+      <c r="T39" s="270"/>
+      <c r="U39" s="270"/>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="5"/>
@@ -32584,28 +31989,28 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="42" spans="1:21" s="2" customFormat="1" ht="28.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="244"/>
-      <c r="C42" s="244"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="244"/>
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="212" t="s">
-        <v>852</v>
+      <c r="B42" s="237"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="237"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
+      <c r="H42" s="237"/>
+      <c r="I42" s="210" t="s">
+        <v>850</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K42" s="244"/>
-      <c r="L42" s="244"/>
-      <c r="M42" s="244"/>
-      <c r="N42" s="212" t="s">
-        <v>315</v>
-      </c>
-      <c r="O42" s="244"/>
+      <c r="K42" s="237"/>
+      <c r="L42" s="237"/>
+      <c r="M42" s="237"/>
+      <c r="N42" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="O42" s="237"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -32640,7 +32045,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="44" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A44" s="8"/>
       <c r="B44" s="10" t="s">
         <v>265</v>
@@ -32671,7 +32076,7 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="45" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A45" s="8"/>
       <c r="B45" s="10" t="s">
         <v>237</v>
@@ -32702,7 +32107,7 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="1:21" ht="60">
+    <row r="46" spans="1:21" ht="57">
       <c r="A46" s="5"/>
       <c r="B46" s="10" t="s">
         <v>159</v>
@@ -32733,63 +32138,63 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" s="246" customFormat="1" ht="30">
-      <c r="A47" s="212"/>
-      <c r="B47" s="212" t="s">
+    <row r="47" spans="1:21" s="239" customFormat="1">
+      <c r="A47" s="210"/>
+      <c r="B47" s="210" t="s">
+        <v>853</v>
+      </c>
+      <c r="C47" s="210"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="210"/>
+      <c r="I47" s="210" t="s">
+        <v>854</v>
+      </c>
+      <c r="J47" s="210"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="210"/>
+      <c r="P47" s="210"/>
+      <c r="Q47" s="210"/>
+      <c r="R47" s="210"/>
+      <c r="S47" s="210"/>
+      <c r="T47" s="210"/>
+      <c r="U47" s="210"/>
+    </row>
+    <row r="48" spans="1:21" s="271" customFormat="1">
+      <c r="A48" s="270"/>
+      <c r="B48" s="270" t="s">
         <v>855</v>
       </c>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212" t="s">
+      <c r="C48" s="270"/>
+      <c r="D48" s="270"/>
+      <c r="E48" s="270"/>
+      <c r="F48" s="270"/>
+      <c r="G48" s="270"/>
+      <c r="H48" s="270"/>
+      <c r="I48" s="270" t="s">
         <v>856</v>
       </c>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="212"/>
-      <c r="M47" s="212"/>
-      <c r="N47" s="212" t="s">
+      <c r="J48" s="270"/>
+      <c r="K48" s="270"/>
+      <c r="L48" s="270"/>
+      <c r="M48" s="270"/>
+      <c r="N48" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="O47" s="212"/>
-      <c r="P47" s="212"/>
-      <c r="Q47" s="212"/>
-      <c r="R47" s="212"/>
-      <c r="S47" s="212"/>
-      <c r="T47" s="212"/>
-      <c r="U47" s="212"/>
-    </row>
-    <row r="48" spans="1:21" s="205" customFormat="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="82" t="s">
-        <v>858</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
+      <c r="O48" s="270"/>
+      <c r="P48" s="270"/>
+      <c r="Q48" s="270"/>
+      <c r="R48" s="270"/>
+      <c r="S48" s="270"/>
+      <c r="T48" s="270"/>
+      <c r="U48" s="270"/>
     </row>
     <row r="49" spans="1:21" s="4" customFormat="1">
       <c r="A49" s="3">
@@ -32849,7 +32254,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" ht="60">
+    <row r="51" spans="1:21" s="9" customFormat="1" ht="57">
       <c r="A51" s="8"/>
       <c r="B51" s="10" t="s">
         <v>159</v>
@@ -32911,7 +32316,7 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" ht="150">
+    <row r="53" spans="1:21" s="9" customFormat="1" ht="143.25">
       <c r="A53" s="8"/>
       <c r="B53" s="10" t="s">
         <v>274</v>
@@ -32948,7 +32353,7 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="54" spans="1:21" s="9" customFormat="1" ht="28.5">
       <c r="A54" s="8"/>
       <c r="B54" s="10" t="s">
         <v>237</v>
@@ -32979,7 +32384,7 @@
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21" ht="30">
+    <row r="55" spans="1:21" ht="28.5">
       <c r="A55" s="5"/>
       <c r="B55" s="10" t="s">
         <v>277</v>
@@ -33010,34 +32415,34 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" s="205" customFormat="1" ht="75">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
+    <row r="56" spans="1:21" s="239" customFormat="1" ht="71.25">
+      <c r="A56" s="210"/>
+      <c r="B56" s="210" t="s">
+        <v>857</v>
+      </c>
+      <c r="C56" s="210"/>
+      <c r="D56" s="210"/>
+      <c r="E56" s="210"/>
+      <c r="F56" s="210"/>
+      <c r="G56" s="210"/>
+      <c r="H56" s="210"/>
+      <c r="I56" s="210" t="s">
+        <v>858</v>
+      </c>
+      <c r="J56" s="210"/>
+      <c r="K56" s="210"/>
+      <c r="L56" s="210"/>
+      <c r="M56" s="210"/>
+      <c r="N56" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="210"/>
+      <c r="P56" s="210"/>
+      <c r="Q56" s="210"/>
+      <c r="R56" s="210"/>
+      <c r="S56" s="210"/>
+      <c r="T56" s="210"/>
+      <c r="U56" s="210"/>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="5"/>
@@ -33260,7 +32665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="45">
+    <row r="66" spans="1:21" ht="42.75">
       <c r="A66" s="5"/>
       <c r="B66" s="10" t="s">
         <v>282</v>
@@ -33312,7 +32717,7 @@
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="5"/>
@@ -33322,7 +32727,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
         <v>239</v>
@@ -33340,12 +32745,12 @@
         <v>232</v>
       </c>
       <c r="K68" s="12"/>
-      <c r="L68" s="250" t="s">
-        <v>887</v>
+      <c r="L68" s="243" t="s">
+        <v>882</v>
       </c>
       <c r="M68" s="12"/>
       <c r="N68" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O68" s="7"/>
       <c r="P68" s="5"/>
@@ -33355,7 +32760,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="45">
+    <row r="69" spans="1:21" ht="42.75">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
         <v>239</v>
@@ -33376,7 +32781,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O69" s="7"/>
       <c r="P69" s="5"/>
@@ -33458,7 +32863,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" ht="30">
+    <row r="72" spans="1:21" ht="28.5">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
         <v>293</v>
@@ -33493,7 +32898,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" ht="120">
+    <row r="73" spans="1:21" ht="85.5">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
         <v>296</v>
@@ -33530,7 +32935,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" ht="75">
+    <row r="74" spans="1:21" ht="57.75">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
         <v>296</v>
@@ -33581,12 +32986,12 @@
         <v>232</v>
       </c>
       <c r="K75" s="12"/>
-      <c r="L75" s="250" t="s">
-        <v>887</v>
+      <c r="L75" s="243" t="s">
+        <v>882</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -33599,7 +33004,7 @@
     <row r="76" spans="1:21" s="205" customFormat="1" ht="30">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -33608,16 +33013,16 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="250" t="s">
-        <v>889</v>
+      <c r="L76" s="243" t="s">
+        <v>884</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
@@ -33641,13 +33046,13 @@
       <c r="I77" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J77" s="212" t="s">
+      <c r="J77" s="210" t="s">
         <v>232</v>
       </c>
       <c r="K77" s="74"/>
-      <c r="L77" s="212"/>
+      <c r="L77" s="210"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="212" t="s">
+      <c r="N77" s="210" t="s">
         <v>192</v>
       </c>
       <c r="O77" s="1"/>
@@ -33672,13 +33077,13 @@
       <c r="I78" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J78" s="212" t="s">
+      <c r="J78" s="210" t="s">
         <v>232</v>
       </c>
       <c r="K78" s="74"/>
-      <c r="L78" s="212"/>
+      <c r="L78" s="210"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="212" t="s">
+      <c r="N78" s="210" t="s">
         <v>192</v>
       </c>
       <c r="O78" s="1"/>
@@ -33689,34 +33094,34 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" s="246" customFormat="1">
-      <c r="A79" s="212"/>
-      <c r="B79" s="212" t="s">
+    <row r="79" spans="1:21" s="239" customFormat="1">
+      <c r="A79" s="210"/>
+      <c r="B79" s="210" t="s">
         <v>302</v>
       </c>
-      <c r="C79" s="212"/>
-      <c r="D79" s="212"/>
-      <c r="E79" s="212"/>
-      <c r="F79" s="212"/>
-      <c r="G79" s="212"/>
-      <c r="H79" s="212"/>
-      <c r="I79" s="212" t="s">
-        <v>861</v>
-      </c>
-      <c r="J79" s="212"/>
-      <c r="K79" s="212"/>
-      <c r="L79" s="212"/>
-      <c r="M79" s="212"/>
-      <c r="N79" s="212" t="s">
+      <c r="C79" s="210"/>
+      <c r="D79" s="210"/>
+      <c r="E79" s="210"/>
+      <c r="F79" s="210"/>
+      <c r="G79" s="210"/>
+      <c r="H79" s="210"/>
+      <c r="I79" s="210" t="s">
+        <v>859</v>
+      </c>
+      <c r="J79" s="210"/>
+      <c r="K79" s="210"/>
+      <c r="L79" s="210"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="O79" s="212"/>
-      <c r="P79" s="212"/>
-      <c r="Q79" s="212"/>
-      <c r="R79" s="212"/>
-      <c r="S79" s="212"/>
-      <c r="T79" s="212"/>
-      <c r="U79" s="212"/>
+      <c r="O79" s="210"/>
+      <c r="P79" s="210"/>
+      <c r="Q79" s="210"/>
+      <c r="R79" s="210"/>
+      <c r="S79" s="210"/>
+      <c r="T79" s="210"/>
+      <c r="U79" s="210"/>
     </row>
     <row r="80" spans="1:21" ht="63" customHeight="1">
       <c r="A80" s="5"/>
@@ -33738,11 +33143,11 @@
       <c r="K80" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L80" s="250" t="s">
-        <v>887</v>
+      <c r="L80" s="243" t="s">
+        <v>882</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="N80" s="77" t="s">
         <v>243</v>
@@ -33755,7 +33160,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" ht="180">
+    <row r="81" spans="1:21" ht="171">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
         <v>159</v>
@@ -33775,11 +33180,11 @@
       <c r="K81" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L81" s="250" t="s">
-        <v>887</v>
+      <c r="L81" s="243" t="s">
+        <v>882</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="N81" s="77" t="s">
         <v>243</v>
@@ -33792,7 +33197,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" s="205" customFormat="1" ht="105">
+    <row r="82" spans="1:21" s="205" customFormat="1" ht="90">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
         <v>309</v>
@@ -33804,7 +33209,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>310</v>
@@ -33817,7 +33222,7 @@
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -33827,7 +33232,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
     </row>
-    <row r="83" spans="1:21" ht="105">
+    <row r="83" spans="1:21" ht="71.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
         <v>312</v>
@@ -33852,7 +33257,7 @@
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -33874,7 +33279,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>315</v>
@@ -33882,7 +33287,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
@@ -33892,7 +33297,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
     </row>
-    <row r="85" spans="1:21" s="205" customFormat="1" ht="30">
+    <row r="85" spans="1:21" s="205" customFormat="1" ht="28.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
         <v>265</v>
@@ -33904,14 +33309,14 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>315</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7" t="s">
@@ -33948,13 +33353,13 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21" ht="18.75">
-      <c r="A87" s="262" t="s">
+    <row r="87" spans="1:21" ht="18">
+      <c r="A87" s="256" t="s">
         <v>318</v>
       </c>
-      <c r="B87" s="262"/>
-    </row>
-    <row r="88" spans="1:21" ht="60">
+      <c r="B87" s="256"/>
+    </row>
+    <row r="88" spans="1:21" ht="42.75">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -34017,7 +33422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="30">
+    <row r="89" spans="1:21" ht="28.5">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -34063,7 +33468,7 @@
       <c r="L90" s="88"/>
       <c r="M90" s="88"/>
       <c r="N90" s="88" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O90" s="88"/>
       <c r="P90" s="88"/>
@@ -34073,12 +33478,13 @@
       <c r="T90" s="88"/>
       <c r="U90" s="88"/>
     </row>
-    <row r="91" spans="1:21" ht="69" customHeight="1">
-      <c r="B91" s="207" t="s">
+    <row r="91" spans="1:21" s="2" customFormat="1" ht="69" customHeight="1">
+      <c r="B91" s="272" t="s">
         <v>838</v>
       </c>
-      <c r="N91" s="207" t="s">
-        <v>352</v>
+      <c r="K91" s="273"/>
+      <c r="N91" s="272" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -34089,84 +33495,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7169" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7169" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7170" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7170" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7171" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7171" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7169" r:id="rId3"/>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7170" r:id="rId4"/>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="7171" r:id="rId5"/>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -34177,37 +33510,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145:J155"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="42" style="6" customWidth="1"/>
     <col min="3" max="3" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="6" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.85546875" style="6"/>
+    <col min="17" max="17" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.875" style="6"/>
     <col min="22" max="22" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="6"/>
+    <col min="23" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1">
@@ -34379,7 +33712,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" s="66" customFormat="1" ht="60">
+    <row r="6" spans="1:19" s="66" customFormat="1" ht="57">
       <c r="A6" s="61"/>
       <c r="B6" s="62" t="s">
         <v>97</v>
@@ -34464,7 +33797,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.5">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>181</v>
@@ -34491,7 +33824,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.5">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>804</v>
@@ -34518,7 +33851,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" s="71" customFormat="1" ht="45">
+    <row r="11" spans="1:19" s="71" customFormat="1" ht="42.75">
       <c r="A11" s="70"/>
       <c r="B11" s="63" t="s">
         <v>182</v>
@@ -34547,7 +33880,7 @@
       <c r="R11" s="70"/>
       <c r="S11" s="70"/>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="28.5">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
@@ -34655,7 +33988,7 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" ht="45">
+    <row r="16" spans="1:19" s="14" customFormat="1" ht="42.75">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
         <v>73</v>
@@ -34682,36 +34015,36 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" s="214" customFormat="1" ht="30">
-      <c r="A17" s="211"/>
-      <c r="B17" s="212" t="s">
+    <row r="17" spans="1:19" s="212" customFormat="1" ht="28.5">
+      <c r="A17" s="209"/>
+      <c r="B17" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212" t="s">
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210" t="s">
         <v>820</v>
       </c>
       <c r="J17" s="74"/>
-      <c r="K17" s="212" t="s">
-        <v>875</v>
-      </c>
-      <c r="L17" s="213" t="s">
-        <v>709</v>
+      <c r="K17" s="210" t="s">
+        <v>870</v>
+      </c>
+      <c r="L17" s="211" t="s">
+        <v>192</v>
       </c>
       <c r="M17" s="74"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-    </row>
-    <row r="18" spans="1:19" s="14" customFormat="1" ht="45">
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="209"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="209"/>
+      <c r="S17" s="209"/>
+    </row>
+    <row r="18" spans="1:19" s="14" customFormat="1" ht="42.75">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
         <v>807</v>
@@ -34738,7 +34071,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="14" customFormat="1">
+    <row r="19" spans="1:19" s="14" customFormat="1" ht="15">
       <c r="A19" s="13"/>
       <c r="B19" s="109" t="s">
         <v>806</v>
@@ -34761,8 +34094,8 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="214" customFormat="1" ht="86.1" customHeight="1">
-      <c r="A20" s="211"/>
+    <row r="20" spans="1:19" s="212" customFormat="1" ht="86.1" customHeight="1">
+      <c r="A20" s="209"/>
       <c r="B20" s="74" t="s">
         <v>187</v>
       </c>
@@ -34776,19 +34109,19 @@
         <v>803</v>
       </c>
       <c r="J20" s="74"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="213" t="s">
-        <v>874</v>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211" t="s">
+        <v>192</v>
       </c>
       <c r="M20" s="74"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="211"/>
-      <c r="Q20" s="211"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-    </row>
-    <row r="21" spans="1:19" s="14" customFormat="1" ht="30">
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
+      <c r="P20" s="209"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="209"/>
+      <c r="S20" s="209"/>
+    </row>
+    <row r="21" spans="1:19" s="14" customFormat="1" ht="28.5">
       <c r="A21" s="13"/>
       <c r="B21" s="12" t="s">
         <v>187</v>
@@ -34815,7 +34148,7 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" s="14" customFormat="1" ht="270">
+    <row r="22" spans="1:19" s="14" customFormat="1" ht="228">
       <c r="A22" s="13"/>
       <c r="B22" s="12" t="s">
         <v>187</v>
@@ -34842,7 +34175,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="1:19" s="14" customFormat="1" ht="30">
+    <row r="23" spans="1:19" s="14" customFormat="1" ht="28.5">
       <c r="A23" s="13"/>
       <c r="B23" s="12" t="s">
         <v>187</v>
@@ -34869,34 +34202,34 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:19" s="221" customFormat="1" ht="75">
-      <c r="A24" s="217"/>
-      <c r="B24" s="218" t="s">
+    <row r="24" spans="1:19" s="219" customFormat="1" ht="57">
+      <c r="A24" s="215"/>
+      <c r="B24" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="218"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="219" t="s">
-        <v>876</v>
-      </c>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218" t="s">
-        <v>873</v>
-      </c>
-      <c r="L24" s="220" t="s">
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="217" t="s">
+        <v>871</v>
+      </c>
+      <c r="J24" s="216"/>
+      <c r="K24" s="216" t="s">
+        <v>869</v>
+      </c>
+      <c r="L24" s="218" t="s">
         <v>709</v>
       </c>
-      <c r="M24" s="218"/>
-      <c r="N24" s="217"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="217"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="215"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="215"/>
+      <c r="S24" s="215"/>
     </row>
     <row r="25" spans="1:19" s="14" customFormat="1">
       <c r="A25" s="13"/>
@@ -34925,32 +34258,32 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="210" customFormat="1" ht="30">
-      <c r="A26" s="209"/>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:19" s="214" customFormat="1" ht="28.5">
+      <c r="A26" s="213"/>
+      <c r="B26" s="210" t="s">
         <v>801</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="39" t="s">
-        <v>868</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="42" t="s">
-        <v>867</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="266" t="s">
+        <v>865</v>
+      </c>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="211" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" s="210"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="213"/>
+      <c r="P26" s="213"/>
+      <c r="Q26" s="213"/>
+      <c r="R26" s="213"/>
+      <c r="S26" s="213"/>
     </row>
     <row r="27" spans="1:19" s="4" customFormat="1">
       <c r="A27" s="3">
@@ -35002,7 +34335,7 @@
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
     </row>
-    <row r="29" spans="1:19" s="20" customFormat="1" ht="30">
+    <row r="29" spans="1:19" s="20" customFormat="1" ht="28.5">
       <c r="A29" s="17"/>
       <c r="B29" s="19" t="s">
         <v>51</v>
@@ -35297,96 +34630,96 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" s="225" customFormat="1" ht="63">
-      <c r="A40" s="218"/>
-      <c r="B40" s="222" t="s">
+    <row r="40" spans="1:19" s="223" customFormat="1" ht="63">
+      <c r="A40" s="216"/>
+      <c r="B40" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="223"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="224" t="s">
-        <v>877</v>
-      </c>
-      <c r="J40" s="218" t="s">
-        <v>897</v>
-      </c>
-      <c r="K40" s="218"/>
-      <c r="L40" s="220" t="s">
-        <v>878</v>
-      </c>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-      <c r="O40" s="218"/>
-      <c r="P40" s="218"/>
-      <c r="Q40" s="218"/>
-      <c r="R40" s="218"/>
-      <c r="S40" s="218"/>
-    </row>
-    <row r="41" spans="1:19" s="225" customFormat="1" ht="63">
-      <c r="A41" s="218"/>
-      <c r="B41" s="222" t="s">
+      <c r="C40" s="221"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="222" t="s">
+        <v>872</v>
+      </c>
+      <c r="J40" s="216" t="s">
+        <v>892</v>
+      </c>
+      <c r="K40" s="216"/>
+      <c r="L40" s="218" t="s">
+        <v>873</v>
+      </c>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="216"/>
+      <c r="Q40" s="216"/>
+      <c r="R40" s="216"/>
+      <c r="S40" s="216"/>
+    </row>
+    <row r="41" spans="1:19" s="223" customFormat="1" ht="63">
+      <c r="A41" s="216"/>
+      <c r="B41" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="223"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="224" t="s">
-        <v>877</v>
-      </c>
-      <c r="J41" s="218" t="s">
-        <v>897</v>
-      </c>
-      <c r="K41" s="218"/>
-      <c r="L41" s="220" t="s">
-        <v>878</v>
-      </c>
-      <c r="M41" s="218"/>
-      <c r="N41" s="218"/>
-      <c r="O41" s="218"/>
-      <c r="P41" s="218"/>
-      <c r="Q41" s="218"/>
-      <c r="R41" s="218"/>
-      <c r="S41" s="218"/>
-    </row>
-    <row r="42" spans="1:19" s="221" customFormat="1" ht="42" customHeight="1">
-      <c r="A42" s="217"/>
-      <c r="B42" s="226" t="s">
+      <c r="C41" s="221"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="222" t="s">
+        <v>872</v>
+      </c>
+      <c r="J41" s="216" t="s">
+        <v>892</v>
+      </c>
+      <c r="K41" s="216"/>
+      <c r="L41" s="218" t="s">
+        <v>873</v>
+      </c>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
+    </row>
+    <row r="42" spans="1:19" s="219" customFormat="1" ht="42" customHeight="1">
+      <c r="A42" s="215"/>
+      <c r="B42" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="224" t="s">
+      <c r="D42" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="224" t="s">
-        <v>880</v>
-      </c>
-      <c r="J42" s="218" t="s">
-        <v>897</v>
-      </c>
-      <c r="K42" s="218"/>
-      <c r="L42" s="220" t="s">
-        <v>879</v>
-      </c>
-      <c r="M42" s="218"/>
-      <c r="N42" s="217"/>
-      <c r="O42" s="217"/>
-      <c r="P42" s="217"/>
-      <c r="Q42" s="217"/>
-      <c r="R42" s="217"/>
-      <c r="S42" s="217"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="222" t="s">
+        <v>875</v>
+      </c>
+      <c r="J42" s="216" t="s">
+        <v>892</v>
+      </c>
+      <c r="K42" s="216"/>
+      <c r="L42" s="218" t="s">
+        <v>874</v>
+      </c>
+      <c r="M42" s="216"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="215"/>
+      <c r="P42" s="215"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="215"/>
     </row>
     <row r="43" spans="1:19" s="28" customFormat="1" ht="18.75" customHeight="1">
       <c r="A43" s="23"/>
@@ -35678,34 +35011,34 @@
       <c r="R52" s="17"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:19" s="216" customFormat="1">
-      <c r="A53" s="215"/>
-      <c r="B53" s="212" t="s">
+    <row r="53" spans="1:19" s="214" customFormat="1">
+      <c r="A53" s="213"/>
+      <c r="B53" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="C53" s="212"/>
-      <c r="D53" s="212"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="212"/>
-      <c r="G53" s="212"/>
-      <c r="H53" s="212"/>
-      <c r="I53" s="212" t="s">
+      <c r="C53" s="210"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="210"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="210"/>
+      <c r="I53" s="210" t="s">
         <v>820</v>
       </c>
-      <c r="J53" s="212"/>
-      <c r="K53" s="212"/>
-      <c r="L53" s="213" t="s">
+      <c r="J53" s="210"/>
+      <c r="K53" s="210"/>
+      <c r="L53" s="211" t="s">
         <v>192</v>
       </c>
-      <c r="M53" s="212"/>
-      <c r="N53" s="215"/>
-      <c r="O53" s="215"/>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="215"/>
-      <c r="R53" s="215"/>
-      <c r="S53" s="215"/>
-    </row>
-    <row r="54" spans="1:19" s="14" customFormat="1" ht="45">
+      <c r="M53" s="210"/>
+      <c r="N53" s="213"/>
+      <c r="O53" s="213"/>
+      <c r="P53" s="213"/>
+      <c r="Q53" s="213"/>
+      <c r="R53" s="213"/>
+      <c r="S53" s="213"/>
+    </row>
+    <row r="54" spans="1:19" s="14" customFormat="1" ht="42.75">
       <c r="A54" s="13"/>
       <c r="B54" s="12" t="s">
         <v>807</v>
@@ -35782,32 +35115,32 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:19" s="231" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A57" s="227"/>
-      <c r="B57" s="227" t="s">
+    <row r="57" spans="1:19" s="239" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A57" s="210"/>
+      <c r="B57" s="210" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="228"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="227"/>
-      <c r="F57" s="227"/>
-      <c r="G57" s="227"/>
-      <c r="H57" s="227"/>
-      <c r="I57" s="229" t="s">
+      <c r="C57" s="267"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="210"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="210"/>
+      <c r="H57" s="210"/>
+      <c r="I57" s="268" t="s">
         <v>802</v>
       </c>
-      <c r="J57" s="227"/>
-      <c r="K57" s="227"/>
-      <c r="L57" s="230" t="s">
-        <v>844</v>
-      </c>
-      <c r="M57" s="227"/>
-      <c r="N57" s="227"/>
-      <c r="O57" s="227"/>
-      <c r="P57" s="227"/>
-      <c r="Q57" s="227"/>
-      <c r="R57" s="227"/>
-      <c r="S57" s="227"/>
+      <c r="J57" s="210"/>
+      <c r="K57" s="210"/>
+      <c r="L57" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="M57" s="210"/>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="210"/>
+      <c r="R57" s="210"/>
+      <c r="S57" s="210"/>
     </row>
     <row r="58" spans="1:19" s="4" customFormat="1">
       <c r="A58" s="3">
@@ -35863,7 +35196,7 @@
       <c r="R59" s="146"/>
       <c r="S59" s="146"/>
     </row>
-    <row r="60" spans="1:19" s="68" customFormat="1" ht="30">
+    <row r="60" spans="1:19" s="68" customFormat="1" ht="28.5">
       <c r="A60" s="26"/>
       <c r="B60" s="26" t="s">
         <v>89</v>
@@ -35919,7 +35252,7 @@
       <c r="R61" s="17"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:19" s="20" customFormat="1" ht="30">
+    <row r="62" spans="1:19" s="20" customFormat="1" ht="28.5">
       <c r="A62" s="17"/>
       <c r="B62" s="19" t="s">
         <v>93</v>
@@ -35946,7 +35279,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:19" s="20" customFormat="1" ht="45">
+    <row r="63" spans="1:19" s="20" customFormat="1" ht="42.75">
       <c r="A63" s="17"/>
       <c r="B63" s="19" t="s">
         <v>34</v>
@@ -36004,7 +35337,7 @@
       <c r="R64" s="152"/>
       <c r="S64" s="152"/>
     </row>
-    <row r="65" spans="1:19" s="20" customFormat="1" ht="45">
+    <row r="65" spans="1:19" s="20" customFormat="1" ht="42.75">
       <c r="A65" s="17"/>
       <c r="B65" s="19" t="s">
         <v>815</v>
@@ -36031,7 +35364,7 @@
       <c r="R65" s="17"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:19" s="20" customFormat="1" ht="30">
+    <row r="66" spans="1:19" s="20" customFormat="1" ht="28.5">
       <c r="A66" s="17"/>
       <c r="B66" s="19" t="s">
         <v>815</v>
@@ -36058,7 +35391,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:19" s="20" customFormat="1" ht="45">
+    <row r="67" spans="1:19" s="20" customFormat="1" ht="42.75">
       <c r="A67" s="17"/>
       <c r="B67" s="19" t="s">
         <v>815</v>
@@ -36110,7 +35443,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" s="20" customFormat="1" ht="30">
+    <row r="69" spans="1:19" s="20" customFormat="1" ht="28.5">
       <c r="A69" s="17"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -36241,59 +35574,59 @@
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
     </row>
-    <row r="74" spans="1:19" s="216" customFormat="1">
-      <c r="A74" s="215"/>
-      <c r="B74" s="212" t="s">
+    <row r="74" spans="1:19" s="214" customFormat="1">
+      <c r="A74" s="213"/>
+      <c r="B74" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="C74" s="212"/>
-      <c r="D74" s="212"/>
-      <c r="E74" s="212"/>
-      <c r="F74" s="212"/>
-      <c r="G74" s="212"/>
-      <c r="H74" s="212"/>
-      <c r="I74" s="212" t="s">
+      <c r="C74" s="210"/>
+      <c r="D74" s="210"/>
+      <c r="E74" s="210"/>
+      <c r="F74" s="210"/>
+      <c r="G74" s="210"/>
+      <c r="H74" s="210"/>
+      <c r="I74" s="210" t="s">
         <v>820</v>
       </c>
-      <c r="J74" s="212"/>
-      <c r="K74" s="212"/>
-      <c r="L74" s="213" t="s">
+      <c r="J74" s="210"/>
+      <c r="K74" s="210"/>
+      <c r="L74" s="211" t="s">
         <v>192</v>
       </c>
-      <c r="M74" s="212"/>
-      <c r="N74" s="215"/>
-      <c r="O74" s="215"/>
-      <c r="P74" s="215"/>
-      <c r="Q74" s="215"/>
-      <c r="R74" s="215"/>
-      <c r="S74" s="215"/>
-    </row>
-    <row r="75" spans="1:19" s="234" customFormat="1">
-      <c r="A75" s="232"/>
-      <c r="B75" s="227" t="s">
+      <c r="M74" s="210"/>
+      <c r="N74" s="213"/>
+      <c r="O74" s="213"/>
+      <c r="P74" s="213"/>
+      <c r="Q74" s="213"/>
+      <c r="R74" s="213"/>
+      <c r="S74" s="213"/>
+    </row>
+    <row r="75" spans="1:19" s="214" customFormat="1">
+      <c r="A75" s="213"/>
+      <c r="B75" s="210" t="s">
         <v>801</v>
       </c>
-      <c r="C75" s="227"/>
-      <c r="D75" s="227"/>
-      <c r="E75" s="227"/>
-      <c r="F75" s="227"/>
-      <c r="G75" s="227"/>
-      <c r="H75" s="227"/>
-      <c r="I75" s="233" t="s">
-        <v>869</v>
-      </c>
-      <c r="J75" s="227"/>
-      <c r="K75" s="227"/>
-      <c r="L75" s="230" t="s">
-        <v>870</v>
-      </c>
-      <c r="M75" s="227"/>
-      <c r="N75" s="232"/>
-      <c r="O75" s="232"/>
-      <c r="P75" s="232"/>
-      <c r="Q75" s="232"/>
-      <c r="R75" s="232"/>
-      <c r="S75" s="232"/>
+      <c r="C75" s="210"/>
+      <c r="D75" s="210"/>
+      <c r="E75" s="210"/>
+      <c r="F75" s="210"/>
+      <c r="G75" s="210"/>
+      <c r="H75" s="210"/>
+      <c r="I75" s="266" t="s">
+        <v>866</v>
+      </c>
+      <c r="J75" s="210"/>
+      <c r="K75" s="210"/>
+      <c r="L75" s="211" t="s">
+        <v>273</v>
+      </c>
+      <c r="M75" s="210"/>
+      <c r="N75" s="213"/>
+      <c r="O75" s="213"/>
+      <c r="P75" s="213"/>
+      <c r="Q75" s="213"/>
+      <c r="R75" s="213"/>
+      <c r="S75" s="213"/>
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1">
       <c r="A76" s="3">
@@ -36322,7 +35655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="38" customFormat="1" ht="45">
+    <row r="77" spans="1:19" s="38" customFormat="1" ht="42.75">
       <c r="A77" s="35">
         <v>6.1</v>
       </c>
@@ -36380,7 +35713,7 @@
       <c r="R78" s="48"/>
       <c r="S78" s="48"/>
     </row>
-    <row r="79" spans="1:19" s="50" customFormat="1" ht="60">
+    <row r="79" spans="1:19" s="50" customFormat="1" ht="57">
       <c r="A79" s="48"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -36539,7 +35872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="5" customFormat="1" ht="30">
+    <row r="88" spans="1:19" s="5" customFormat="1" ht="28.5">
       <c r="B88" s="5" t="s">
         <v>116</v>
       </c>
@@ -36591,7 +35924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="50" customFormat="1" ht="45">
+    <row r="93" spans="1:19" s="50" customFormat="1" ht="42.75">
       <c r="A93" s="58"/>
       <c r="B93" s="67" t="s">
         <v>103</v>
@@ -36805,38 +36138,38 @@
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" s="237" customFormat="1" ht="135">
-      <c r="A101" s="235"/>
-      <c r="B101" s="236" t="s">
+    <row r="101" spans="1:19" s="233" customFormat="1" ht="128.25">
+      <c r="A101" s="231"/>
+      <c r="B101" s="232" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="236"/>
-      <c r="D101" s="236"/>
-      <c r="E101" s="236"/>
-      <c r="F101" s="236"/>
-      <c r="G101" s="236"/>
-      <c r="H101" s="236"/>
-      <c r="I101" s="236" t="s">
+      <c r="C101" s="232"/>
+      <c r="D101" s="232"/>
+      <c r="E101" s="232"/>
+      <c r="F101" s="232"/>
+      <c r="G101" s="232"/>
+      <c r="H101" s="232"/>
+      <c r="I101" s="232" t="s">
         <v>133</v>
       </c>
-      <c r="J101" s="227" t="s">
-        <v>898</v>
-      </c>
-      <c r="K101" s="236" t="s">
+      <c r="J101" s="225" t="s">
+        <v>893</v>
+      </c>
+      <c r="K101" s="232" t="s">
         <v>831</v>
       </c>
-      <c r="L101" s="230" t="s">
-        <v>881</v>
-      </c>
-      <c r="M101" s="235"/>
-      <c r="N101" s="235"/>
-      <c r="O101" s="235"/>
-      <c r="P101" s="235"/>
-      <c r="Q101" s="235"/>
-      <c r="R101" s="235"/>
-      <c r="S101" s="235"/>
-    </row>
-    <row r="102" spans="1:19" s="50" customFormat="1" ht="120">
+      <c r="L101" s="226" t="s">
+        <v>876</v>
+      </c>
+      <c r="M101" s="231"/>
+      <c r="N101" s="231"/>
+      <c r="O101" s="231"/>
+      <c r="P101" s="231"/>
+      <c r="Q101" s="231"/>
+      <c r="R101" s="231"/>
+      <c r="S101" s="231"/>
+    </row>
+    <row r="102" spans="1:19" s="50" customFormat="1" ht="99.75">
       <c r="A102" s="48"/>
       <c r="B102" s="12" t="s">
         <v>134</v>
@@ -36865,7 +36198,7 @@
       <c r="R102" s="48"/>
       <c r="S102" s="48"/>
     </row>
-    <row r="103" spans="1:19" s="50" customFormat="1" ht="120">
+    <row r="103" spans="1:19" s="50" customFormat="1" ht="99.75">
       <c r="A103" s="48"/>
       <c r="B103" s="12" t="s">
         <v>135</v>
@@ -36894,7 +36227,7 @@
       <c r="R103" s="48"/>
       <c r="S103" s="48"/>
     </row>
-    <row r="104" spans="1:19" ht="30">
+    <row r="104" spans="1:19" ht="28.5">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
         <v>136</v>
@@ -36921,7 +36254,7 @@
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
     </row>
-    <row r="105" spans="1:19" ht="30">
+    <row r="105" spans="1:19" ht="28.5">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
         <v>136</v>
@@ -36948,90 +36281,90 @@
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
     </row>
-    <row r="106" spans="1:19" s="231" customFormat="1" ht="105">
-      <c r="A106" s="227"/>
-      <c r="B106" s="227" t="s">
+    <row r="106" spans="1:19" s="227" customFormat="1" ht="85.5">
+      <c r="A106" s="225"/>
+      <c r="B106" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="227"/>
-      <c r="D106" s="227"/>
-      <c r="E106" s="227"/>
-      <c r="F106" s="227"/>
-      <c r="G106" s="227"/>
-      <c r="H106" s="227"/>
-      <c r="I106" s="227" t="s">
-        <v>882</v>
-      </c>
-      <c r="J106" s="227" t="s">
-        <v>899</v>
-      </c>
-      <c r="K106" s="227"/>
-      <c r="L106" s="230" t="s">
+      <c r="C106" s="225"/>
+      <c r="D106" s="225"/>
+      <c r="E106" s="225"/>
+      <c r="F106" s="225"/>
+      <c r="G106" s="225"/>
+      <c r="H106" s="225"/>
+      <c r="I106" s="225" t="s">
+        <v>877</v>
+      </c>
+      <c r="J106" s="225" t="s">
+        <v>894</v>
+      </c>
+      <c r="K106" s="225"/>
+      <c r="L106" s="226" t="s">
         <v>709</v>
       </c>
-      <c r="M106" s="227"/>
-      <c r="N106" s="227"/>
-      <c r="O106" s="227"/>
-      <c r="P106" s="227"/>
-      <c r="Q106" s="227"/>
-      <c r="R106" s="227"/>
-      <c r="S106" s="227"/>
-    </row>
-    <row r="107" spans="1:19" s="216" customFormat="1">
-      <c r="A107" s="215"/>
-      <c r="B107" s="212" t="s">
+      <c r="M106" s="225"/>
+      <c r="N106" s="225"/>
+      <c r="O106" s="225"/>
+      <c r="P106" s="225"/>
+      <c r="Q106" s="225"/>
+      <c r="R106" s="225"/>
+      <c r="S106" s="225"/>
+    </row>
+    <row r="107" spans="1:19" s="214" customFormat="1">
+      <c r="A107" s="213"/>
+      <c r="B107" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="212"/>
-      <c r="D107" s="212"/>
-      <c r="E107" s="212"/>
-      <c r="F107" s="212"/>
-      <c r="G107" s="212"/>
-      <c r="H107" s="212"/>
-      <c r="I107" s="212" t="s">
+      <c r="C107" s="210"/>
+      <c r="D107" s="210"/>
+      <c r="E107" s="210"/>
+      <c r="F107" s="210"/>
+      <c r="G107" s="210"/>
+      <c r="H107" s="210"/>
+      <c r="I107" s="210" t="s">
         <v>820</v>
       </c>
-      <c r="J107" s="212"/>
-      <c r="K107" s="212"/>
-      <c r="L107" s="213" t="s">
+      <c r="J107" s="210"/>
+      <c r="K107" s="210"/>
+      <c r="L107" s="211" t="s">
         <v>192</v>
       </c>
-      <c r="M107" s="212"/>
-      <c r="N107" s="215"/>
-      <c r="O107" s="215"/>
-      <c r="P107" s="215"/>
-      <c r="Q107" s="215"/>
-      <c r="R107" s="215"/>
-      <c r="S107" s="215"/>
-    </row>
-    <row r="108" spans="1:19" s="14" customFormat="1" ht="60">
-      <c r="A108" s="13"/>
-      <c r="B108" s="12" t="s">
+      <c r="M107" s="210"/>
+      <c r="N107" s="213"/>
+      <c r="O107" s="213"/>
+      <c r="P107" s="213"/>
+      <c r="Q107" s="213"/>
+      <c r="R107" s="213"/>
+      <c r="S107" s="213"/>
+    </row>
+    <row r="108" spans="1:19" s="212" customFormat="1" ht="28.5">
+      <c r="A108" s="209"/>
+      <c r="B108" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="72" t="s">
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="269" t="s">
         <v>802</v>
       </c>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="42" t="s">
-        <v>845</v>
-      </c>
-      <c r="M108" s="12"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-    </row>
-    <row r="109" spans="1:19" ht="30">
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="M108" s="74"/>
+      <c r="N108" s="209"/>
+      <c r="O108" s="209"/>
+      <c r="P108" s="209"/>
+      <c r="Q108" s="209"/>
+      <c r="R108" s="209"/>
+      <c r="S108" s="209"/>
+    </row>
+    <row r="109" spans="1:19" ht="28.5">
       <c r="A109" s="5"/>
       <c r="B109" s="5" t="s">
         <v>822</v>
@@ -37297,7 +36630,7 @@
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
     </row>
-    <row r="119" spans="1:19" ht="105">
+    <row r="119" spans="1:19" ht="85.5">
       <c r="A119" s="5"/>
       <c r="B119" s="5" t="s">
         <v>149</v>
@@ -37309,14 +36642,14 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="208" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -37374,7 +36707,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
     </row>
-    <row r="122" spans="1:19" ht="30">
+    <row r="122" spans="1:19" ht="28.5">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
         <v>132</v>
@@ -37401,7 +36734,7 @@
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
     </row>
-    <row r="123" spans="1:19" ht="120">
+    <row r="123" spans="1:19" ht="99.75">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
         <v>134</v>
@@ -37413,16 +36746,16 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="J123" s="269" t="s">
-        <v>901</v>
+        <v>879</v>
+      </c>
+      <c r="J123" s="246" t="s">
+        <v>896</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>824</v>
       </c>
       <c r="L123" s="42" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -37432,7 +36765,7 @@
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
     </row>
-    <row r="124" spans="1:19" ht="120">
+    <row r="124" spans="1:19" ht="99.75">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
         <v>135</v>
@@ -37461,7 +36794,7 @@
       <c r="R124" s="5"/>
       <c r="S124" s="5"/>
     </row>
-    <row r="125" spans="1:19" ht="30">
+    <row r="125" spans="1:19" ht="28.5">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>136</v>
@@ -37515,63 +36848,63 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="240" customFormat="1" ht="30">
-      <c r="A127" s="238"/>
-      <c r="B127" s="236" t="s">
+    <row r="127" spans="1:19" s="212" customFormat="1" ht="28.5">
+      <c r="A127" s="209"/>
+      <c r="B127" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="C127" s="236"/>
-      <c r="D127" s="236"/>
-      <c r="E127" s="236"/>
-      <c r="F127" s="236"/>
-      <c r="G127" s="236"/>
-      <c r="H127" s="236"/>
-      <c r="I127" s="239" t="s">
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="269" t="s">
         <v>802</v>
       </c>
-      <c r="J127" s="236"/>
-      <c r="K127" s="236"/>
-      <c r="L127" s="230" t="s">
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="M127" s="74"/>
+      <c r="N127" s="209"/>
+      <c r="O127" s="209"/>
+      <c r="P127" s="209"/>
+      <c r="Q127" s="209"/>
+      <c r="R127" s="209"/>
+      <c r="S127" s="209"/>
+    </row>
+    <row r="128" spans="1:19" s="235" customFormat="1">
+      <c r="A128" s="234">
+        <v>6.3</v>
+      </c>
+      <c r="B128" s="234" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="234"/>
+      <c r="D128" s="234"/>
+      <c r="E128" s="234"/>
+      <c r="F128" s="234"/>
+      <c r="G128" s="234"/>
+      <c r="H128" s="234"/>
+      <c r="I128" s="234" t="s">
+        <v>832</v>
+      </c>
+      <c r="J128" s="241" t="s">
+        <v>236</v>
+      </c>
+      <c r="K128" s="234"/>
+      <c r="L128" s="226" t="s">
         <v>709</v>
       </c>
-      <c r="M127" s="236"/>
-      <c r="N127" s="238"/>
-      <c r="O127" s="238"/>
-      <c r="P127" s="238"/>
-      <c r="Q127" s="238"/>
-      <c r="R127" s="238"/>
-      <c r="S127" s="238"/>
-    </row>
-    <row r="128" spans="1:19" s="242" customFormat="1">
-      <c r="A128" s="241">
-        <v>6.3</v>
-      </c>
-      <c r="B128" s="241" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="241"/>
-      <c r="D128" s="241"/>
-      <c r="E128" s="241"/>
-      <c r="F128" s="241"/>
-      <c r="G128" s="241"/>
-      <c r="H128" s="241"/>
-      <c r="I128" s="241" t="s">
-        <v>832</v>
-      </c>
-      <c r="J128" s="248" t="s">
-        <v>236</v>
-      </c>
-      <c r="K128" s="241"/>
-      <c r="L128" s="230" t="s">
-        <v>709</v>
-      </c>
-      <c r="M128" s="241"/>
-      <c r="N128" s="241"/>
-      <c r="O128" s="241"/>
-      <c r="P128" s="241"/>
-      <c r="Q128" s="241"/>
-      <c r="R128" s="241"/>
-      <c r="S128" s="241"/>
+      <c r="M128" s="234"/>
+      <c r="N128" s="234"/>
+      <c r="O128" s="234"/>
+      <c r="P128" s="234"/>
+      <c r="Q128" s="234"/>
+      <c r="R128" s="234"/>
+      <c r="S128" s="234"/>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="5"/>
@@ -37646,36 +36979,36 @@
       <c r="R131" s="5"/>
       <c r="S131" s="5"/>
     </row>
-    <row r="132" spans="1:19" s="237" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A132" s="235"/>
-      <c r="B132" s="235" t="s">
+    <row r="132" spans="1:19" s="233" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A132" s="231"/>
+      <c r="B132" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="C132" s="235"/>
-      <c r="D132" s="235"/>
-      <c r="E132" s="235"/>
-      <c r="F132" s="235"/>
-      <c r="G132" s="235"/>
-      <c r="H132" s="235"/>
-      <c r="I132" s="236" t="s">
+      <c r="C132" s="231"/>
+      <c r="D132" s="231"/>
+      <c r="E132" s="231"/>
+      <c r="F132" s="231"/>
+      <c r="G132" s="231"/>
+      <c r="H132" s="231"/>
+      <c r="I132" s="232" t="s">
         <v>825</v>
       </c>
-      <c r="J132" s="227" t="s">
-        <v>902</v>
-      </c>
-      <c r="K132" s="249" t="s">
-        <v>885</v>
-      </c>
-      <c r="L132" s="230" t="s">
+      <c r="J132" s="225" t="s">
+        <v>897</v>
+      </c>
+      <c r="K132" s="242" t="s">
+        <v>880</v>
+      </c>
+      <c r="L132" s="226" t="s">
         <v>709</v>
       </c>
-      <c r="M132" s="235"/>
-      <c r="N132" s="235"/>
-      <c r="O132" s="235"/>
-      <c r="P132" s="235"/>
-      <c r="Q132" s="235"/>
-      <c r="R132" s="235"/>
-      <c r="S132" s="235"/>
+      <c r="M132" s="231"/>
+      <c r="N132" s="231"/>
+      <c r="O132" s="231"/>
+      <c r="P132" s="231"/>
+      <c r="Q132" s="231"/>
+      <c r="R132" s="231"/>
+      <c r="S132" s="231"/>
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="5"/>
@@ -37877,12 +37210,12 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="243" t="s">
+      <c r="I140" s="236" t="s">
         <v>143</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="213" t="s">
+      <c r="L140" s="211" t="s">
         <v>192</v>
       </c>
       <c r="M140" s="1"/>
@@ -38015,14 +37348,14 @@
       <c r="I145" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J145" s="270" t="s">
-        <v>896</v>
+      <c r="J145" s="260" t="s">
+        <v>891</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L145" s="266" t="s">
-        <v>892</v>
+      <c r="L145" s="263" t="s">
+        <v>887</v>
       </c>
       <c r="M145" s="48"/>
       <c r="N145" s="48"/>
@@ -38044,9 +37377,9 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="271"/>
+      <c r="J146" s="261"/>
       <c r="K146" s="5"/>
-      <c r="L146" s="267"/>
+      <c r="L146" s="264"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
@@ -38069,9 +37402,9 @@
       <c r="I147" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J147" s="271"/>
+      <c r="J147" s="261"/>
       <c r="K147" s="5"/>
-      <c r="L147" s="267"/>
+      <c r="L147" s="264"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
@@ -38094,9 +37427,9 @@
       <c r="I148" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J148" s="271"/>
+      <c r="J148" s="261"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="267"/>
+      <c r="L148" s="264"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
@@ -38119,9 +37452,9 @@
       <c r="I149" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J149" s="271"/>
+      <c r="J149" s="261"/>
       <c r="K149" s="5"/>
-      <c r="L149" s="267"/>
+      <c r="L149" s="264"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
@@ -38144,9 +37477,9 @@
       <c r="I150" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J150" s="271"/>
+      <c r="J150" s="261"/>
       <c r="K150" s="5"/>
-      <c r="L150" s="267"/>
+      <c r="L150" s="264"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
@@ -38169,9 +37502,9 @@
       <c r="I151" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J151" s="271"/>
+      <c r="J151" s="261"/>
       <c r="K151" s="5"/>
-      <c r="L151" s="267"/>
+      <c r="L151" s="264"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
@@ -38194,9 +37527,9 @@
       <c r="I152" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J152" s="271"/>
+      <c r="J152" s="261"/>
       <c r="K152" s="5"/>
-      <c r="L152" s="267"/>
+      <c r="L152" s="264"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
@@ -38219,9 +37552,9 @@
       <c r="I153" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J153" s="271"/>
+      <c r="J153" s="261"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="267"/>
+      <c r="L153" s="264"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
@@ -38230,7 +37563,7 @@
       <c r="R153" s="5"/>
       <c r="S153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="45">
+    <row r="154" spans="1:19" ht="42.75">
       <c r="A154" s="5"/>
       <c r="B154" s="7" t="s">
         <v>159</v>
@@ -38244,9 +37577,9 @@
       <c r="I154" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J154" s="271"/>
+      <c r="J154" s="261"/>
       <c r="K154" s="5"/>
-      <c r="L154" s="267"/>
+      <c r="L154" s="264"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
@@ -38269,9 +37602,9 @@
       <c r="I155" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="J155" s="272"/>
+      <c r="J155" s="262"/>
       <c r="K155" s="12"/>
-      <c r="L155" s="268"/>
+      <c r="L155" s="265"/>
       <c r="M155" s="12"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
@@ -43039,59 +42372,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId3"/>
+    <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4"/>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -43102,12 +42386,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
